--- a/input/_excel/example.xlsx
+++ b/input/_excel/example.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga35vuk\Desktop\mg_ev_opti\settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga35vuk\Desktop\mg_ev_opti\input\_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87B29B6-EAFE-4813-8351-8DECE7836860}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5118CA8-6D56-4A69-83A0-1DAEAA9751A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="14100" xr2:uid="{73BD2749-5E13-4C00-9545-BF8A7C205FF5}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15460" xr2:uid="{73BD2749-5E13-4C00-9545-BF8A7C205FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="global_settings" sheetId="2" r:id="rId1"/>
-    <sheet name="baseline_bev_cs" sheetId="1" r:id="rId2"/>
+    <sheet name="baseline" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="178">
   <si>
     <t>Simulation Options</t>
   </si>
@@ -58,9 +58,6 @@
     <t>time step length ('H'=hourly, other lengths not tested yet!)</t>
   </si>
   <si>
-    <t>minimum variable cost in $/Wh for transformers to incentivize minimum flow</t>
-  </si>
-  <si>
     <t>sim_os</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>go: global optimum (no operating strategy), rh: rolling horizon strategy</t>
   </si>
   <si>
-    <t>Settings RH Strategy</t>
-  </si>
-  <si>
     <t>rh_ph</t>
   </si>
   <si>
@@ -124,18 +118,12 @@
     <t>unitless conversion efficiency of dc-ac bus transformer component</t>
   </si>
   <si>
-    <t xml:space="preserve">Demand Data </t>
-  </si>
-  <si>
     <t>dem_enable</t>
   </si>
   <si>
     <t>dem_filename</t>
   </si>
   <si>
-    <t>SL - Bumpeh_total.csv</t>
-  </si>
-  <si>
     <t>input data file containing timeseries for electricity demand in W</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>wind_filename</t>
   </si>
   <si>
-    <t>wind_data.csv</t>
-  </si>
-  <si>
     <t>name of the normalized wind power profile csv file in ./scenarios to evaluate</t>
   </si>
   <si>
@@ -196,9 +181,6 @@
     <t>annual ratio of component cost decrease</t>
   </si>
   <si>
-    <t>wind_cs</t>
-  </si>
-  <si>
     <t>[W]</t>
   </si>
   <si>
@@ -217,9 +199,6 @@
     <t>pv_filename</t>
   </si>
   <si>
-    <t>Bumpeh.csv</t>
-  </si>
-  <si>
     <t>name of the normalized pv power profile csv file in ./scenarios to evaluate</t>
   </si>
   <si>
@@ -385,9 +364,6 @@
     <t>bev_filename</t>
   </si>
   <si>
-    <t>exemp_vehicles.csv</t>
-  </si>
-  <si>
     <t>bev_agr</t>
   </si>
   <si>
@@ -512,6 +488,78 @@
   </si>
   <si>
     <t>Global Simulation Options</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>float [USD/Wh]</t>
+  </si>
+  <si>
+    <t>minimum variable cost for transformers to disincentivize circular flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stationary Demand Data </t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>pv_connection</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>wind_connection</t>
+  </si>
+  <si>
+    <t>dem_connection</t>
+  </si>
+  <si>
+    <t>wind_size</t>
+  </si>
+  <si>
+    <t>pv_useapi</t>
+  </si>
+  <si>
+    <t>pv_location</t>
+  </si>
+  <si>
+    <t>(lat,lon)</t>
+  </si>
+  <si>
+    <t>gen_connection</t>
+  </si>
+  <si>
+    <t>ess_connection</t>
+  </si>
+  <si>
+    <t>bev_connection</t>
+  </si>
+  <si>
+    <t>RH Operational Strategy Settings</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t>"True activates parallel solving of all sxenarios using all available CPU cores</t>
+  </si>
+  <si>
+    <t>SL_Bump_total.csv</t>
+  </si>
+  <si>
+    <t>Bumpeh</t>
+  </si>
+  <si>
+    <t>wind_example</t>
+  </si>
+  <si>
+    <t>bev_example</t>
   </si>
 </sst>
 </file>
@@ -599,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -612,7 +660,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -624,6 +671,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,129 +993,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5BC3E-ED8E-4EBD-A87B-4474DAC12059}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>161</v>
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>144</v>
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>156</v>
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
       <c r="D3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>145</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
+      <c r="C4" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
       <c r="D5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
+      <c r="C6" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>147</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="8">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="7">
         <v>1E-8</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1069,10 +1144,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{D220689E-F449-4819-900F-035063C98B78}">
       <formula1>"cbc, gplk, gurobi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8" xr:uid="{33713397-7411-489F-B0BC-4D422D2052DA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B9" xr:uid="{33713397-7411-489F-B0BC-4D422D2052DA}">
       <formula1>"False, True,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6" xr:uid="{41BD747C-28D3-4B57-8165-9E4EEAFE626B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B7 B3" xr:uid="{41BD747C-28D3-4B57-8165-9E4EEAFE626B}">
       <formula1>"True, False,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1083,19 +1158,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD09034-A1CD-4ECF-9F82-6F45633B0EDC}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="2" customWidth="1"/>
+    <col min="1" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1103,9 +1178,9 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>153</v>
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -1113,119 +1188,119 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>154</v>
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="B3" s="1">
         <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>48</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="9">
+    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="8">
         <v>38367</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>151</v>
+      <c r="D11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="B12" s="1">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>155</v>
+        <v>22</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="B13" s="1">
         <v>7.0000000000000007E-2</v>
@@ -1233,24 +1308,24 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>28</v>
+    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>0.95</v>
@@ -1258,13 +1333,13 @@
       <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>30</v>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>0.95</v>
@@ -1272,24 +1347,24 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>33</v>
+    <row r="20" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
@@ -1297,44 +1372,45 @@
       <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
@@ -1343,806 +1419,883 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.355</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="1">
-        <v>1.355</v>
-      </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="31" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="1">
+    </row>
+    <row r="32" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="7">
+        <v>100000</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="1">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="1">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="1">
+    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="7">
+        <v>36250</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="1">
         <v>0</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="1">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="7" t="s">
+    </row>
+    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="7">
+        <v>30000</v>
+      </c>
+      <c r="C59" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="1">
-        <v>20</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="8">
-        <v>100000</v>
-      </c>
-      <c r="C32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="D59" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="1">
-        <v>25</v>
-      </c>
-      <c r="C41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="8">
-        <v>36250</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="1">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="1">
-        <v>6.4999999999999997E-4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="B51" s="1">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="1">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="8">
-        <v>30000</v>
-      </c>
-      <c r="C53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="1">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="1">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" s="1">
-        <v>10</v>
-      </c>
-      <c r="C61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B63" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B64" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C64" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="B65" s="1">
         <v>0.8</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>106</v>
+        <v>45</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="B66" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>108</v>
+        <v>86</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
       </c>
       <c r="C67" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="1">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="7">
+        <v>160000</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="B79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="B80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B68" s="1">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="B82" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="8">
-        <v>160000</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D69" s="7" t="s">
+    </row>
+    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="12" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="B84" s="1">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+    </row>
+    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="B85" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C74" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+      <c r="B88" s="1">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B75" s="1">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="7" t="s">
+      <c r="B89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C89" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+      <c r="D89" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="1">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" s="7" t="s">
+      <c r="B90" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B77" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B91" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C91" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" s="1">
-        <v>0</v>
-      </c>
-      <c r="C78" t="s">
-        <v>93</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B79" s="1">
-        <v>0</v>
-      </c>
-      <c r="C79" t="s">
-        <v>50</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B80" s="1">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B81" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C81" t="s">
-        <v>129</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B82" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C82" t="s">
-        <v>57</v>
-      </c>
-      <c r="D82" s="7" t="s">
+    </row>
+    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+      <c r="B95" s="7">
+        <v>30000</v>
+      </c>
+      <c r="C95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B83" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C83" t="s">
-        <v>57</v>
-      </c>
-      <c r="D83" s="7" t="s">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
+      <c r="B96" t="s">
         <v>134</v>
       </c>
-      <c r="B84" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" s="7" t="s">
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B85" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B86" s="1">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B87" s="8">
-        <v>30000</v>
-      </c>
-      <c r="C87" t="s">
-        <v>113</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B88" t="s">
-        <v>142</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B25" xr:uid="{7E208AF1-FB75-4817-8593-A33063237BF9}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B26" xr:uid="{7E208AF1-FB75-4817-8593-A33063237BF9}">
       <formula1>"False, True"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24" xr:uid="{33713397-7411-489F-B0BC-4D422D2052DA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{33713397-7411-489F-B0BC-4D422D2052DA}">
       <formula1>"False, True,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35:B36 B46:B47 B56:B57 B72:B73" xr:uid="{DE597879-E42D-4CB3-8055-6A2B7C92604D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:B63 B37:B38 B51:B52 B79:B80" xr:uid="{DE597879-E42D-4CB3-8055-6A2B7C92604D}">
       <formula1>"True, False,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75" xr:uid="{3BC1C23A-7243-45B2-ADCD-10EC6C1DB8D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83" xr:uid="{3BC1C23A-7243-45B2-ADCD-10EC6C1DB8D2}">
       <formula1>"False, True, 0, 1"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{55085296-BFE3-46DC-A3BC-7C4B98F81B5C}">
       <formula1>"go, rh"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21 B27 B39" xr:uid="{980EDA33-1749-49C6-B0CA-CCE660BFD42A}">
+      <formula1>"AC, DC"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40" xr:uid="{437D8778-40D3-45A7-8C87-74EAFFED1B04}">
+      <formula1>"True, False"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53 B64 B81" xr:uid="{D32D9107-3C35-41C8-BD09-D7C3EC346ECD}">
+      <formula1>"AC,DC,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/input/_excel/example.xlsx
+++ b/input/_excel/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga35vuk\Desktop\mg_ev_opti\input\_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5118CA8-6D56-4A69-83A0-1DAEAA9751A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA261BEC-AC85-4E5E-A0AC-17797A06876A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15460" xr2:uid="{73BD2749-5E13-4C00-9545-BF8A7C205FF5}"/>
+    <workbookView xWindow="5320" yWindow="4800" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{73BD2749-5E13-4C00-9545-BF8A7C205FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="global_settings" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="184">
   <si>
     <t>Simulation Options</t>
   </si>
@@ -133,9 +133,6 @@
     <t>wind_enable</t>
   </si>
   <si>
-    <t>wind_enable_cs</t>
-  </si>
-  <si>
     <t>wind_filename</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>pv_enable</t>
   </si>
   <si>
-    <t>pv_enable_cs</t>
-  </si>
-  <si>
     <t>pv_filename</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
     <t>gen_enable</t>
   </si>
   <si>
-    <t>gen_enable_cs</t>
-  </si>
-  <si>
     <t>gen_sce</t>
   </si>
   <si>
@@ -274,9 +265,6 @@
     <t>ess_enable</t>
   </si>
   <si>
-    <t>ess_enable_cs</t>
-  </si>
-  <si>
     <t>ess_sce</t>
   </si>
   <si>
@@ -358,9 +346,6 @@
     <t>bev_enable</t>
   </si>
   <si>
-    <t>bev_enable_cs</t>
-  </si>
-  <si>
     <t>bev_filename</t>
   </si>
   <si>
@@ -409,15 +394,9 @@
     <t>bev_charge_eff</t>
   </si>
   <si>
-    <t>unitless charge efficiency</t>
-  </si>
-  <si>
     <t>bev_discharge_eff</t>
   </si>
   <si>
-    <t>unitless discharge efficiency</t>
-  </si>
-  <si>
     <t>bev_cdc</t>
   </si>
   <si>
@@ -427,9 +406,6 @@
     <t>battery size of vehicles in Wh, only valid if sim_cs["bev"]==False</t>
   </si>
   <si>
-    <t>bev_chg_lvl</t>
-  </si>
-  <si>
     <t>cc</t>
   </si>
   <si>
@@ -523,12 +499,6 @@
     <t>wind_size</t>
   </si>
   <si>
-    <t>pv_useapi</t>
-  </si>
-  <si>
-    <t>pv_location</t>
-  </si>
-  <si>
     <t>(lat,lon)</t>
   </si>
   <si>
@@ -560,6 +530,54 @@
   </si>
   <si>
     <t>bev_example</t>
+  </si>
+  <si>
+    <t>pv_api_location</t>
+  </si>
+  <si>
+    <t>pv_use_api</t>
+  </si>
+  <si>
+    <t>wind_opt</t>
+  </si>
+  <si>
+    <t>pv_opt</t>
+  </si>
+  <si>
+    <t>gen_opt</t>
+  </si>
+  <si>
+    <t>ess_opt</t>
+  </si>
+  <si>
+    <t>bev_opt</t>
+  </si>
+  <si>
+    <t>(1,1)</t>
+  </si>
+  <si>
+    <t>pv_eff</t>
+  </si>
+  <si>
+    <t>transformer efficiency for feed-in to bus</t>
+  </si>
+  <si>
+    <t>gen_eff</t>
+  </si>
+  <si>
+    <t>ess_eff</t>
+  </si>
+  <si>
+    <t>bev_eff</t>
+  </si>
+  <si>
+    <t>transformer efficiency for feed-in to main bus</t>
+  </si>
+  <si>
+    <t>transformer efficiency for every commodity's connection</t>
+  </si>
+  <si>
+    <t>bev_int_lvl</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5BC3E-ED8E-4EBD-A87B-4474DAC12059}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1007,7 +1025,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1015,13 +1033,13 @@
     </row>
     <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1029,83 +1047,83 @@
     </row>
     <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1113,13 +1131,13 @@
     </row>
     <row r="9" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1127,16 +1145,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B10" s="7">
         <v>1E-8</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1158,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD09034-A1CD-4ECF-9F82-6F45633B0EDC}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -1180,7 +1198,7 @@
     </row>
     <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -1194,7 +1212,7 @@
     </row>
     <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1">
         <v>350</v>
@@ -1225,7 +1243,7 @@
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1272,7 +1290,7 @@
     </row>
     <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B11" s="8">
         <v>38367</v>
@@ -1286,7 +1304,7 @@
     </row>
     <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B12" s="1">
         <v>20</v>
@@ -1300,7 +1318,7 @@
     </row>
     <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B13" s="1">
         <v>7.0000000000000007E-2</v>
@@ -1356,7 +1374,7 @@
     </row>
     <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1376,10 +1394,10 @@
     </row>
     <row r="21" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>1</v>
@@ -1391,7 +1409,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -1421,7 +1439,7 @@
     </row>
     <row r="26" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
@@ -1432,71 +1450,71 @@
     </row>
     <row r="27" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>1.355</v>
       </c>
       <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
       </c>
       <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
       <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1">
         <v>20</v>
@@ -1505,35 +1523,35 @@
         <v>22</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B34" s="7">
         <v>100000</v>
       </c>
       <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1541,7 +1559,7 @@
     </row>
     <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1549,7 +1567,7 @@
     </row>
     <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>4</v>
@@ -1560,7 +1578,7 @@
     </row>
     <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>4</v>
@@ -1571,152 +1589,157 @@
     </row>
     <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>161</v>
+        <v>64</v>
+      </c>
+      <c r="B39" s="7">
+        <v>36250</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0.8</v>
+        <v>54</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B46" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B47" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="7">
-        <v>36250</v>
-      </c>
-      <c r="C48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1</v>
-      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>4</v>
@@ -1727,349 +1750,358 @@
     </row>
     <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="1">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>72</v>
+        <v>158</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B56" s="1">
-        <v>6.4999999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B57" s="1">
-        <v>10</v>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B58" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="7">
+        <v>74</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="7">
         <v>30000</v>
       </c>
-      <c r="C59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1</v>
-      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>161</v>
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="1">
-        <v>0.8</v>
+        <v>173</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="1">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>87</v>
+        <v>159</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B67" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B68" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B69" s="1">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B70" s="1">
-        <v>0.9</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B71" s="1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B72" s="1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B73" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="C73" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B74" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B75" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B76" s="7">
+        <v>97</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="7">
         <v>160000</v>
       </c>
-      <c r="C76" t="s">
-        <v>106</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="4"/>
+      <c r="C78" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -2077,198 +2109,242 @@
     </row>
     <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B83" s="1">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B84" s="1">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>115</v>
+        <v>160</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B85" s="1">
-        <v>0.8</v>
+        <v>106</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B87" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B88" s="1">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B89" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B90" s="1">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B91" s="1">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B92" s="1">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="C92" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B93" s="1">
-        <v>0.95</v>
+        <v>3600</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="C94" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B95" s="7">
+        <v>180</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="7">
         <v>30000</v>
       </c>
-      <c r="C95" t="s">
-        <v>106</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B96" t="s">
-        <v>134</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>135</v>
+      <c r="C99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B100" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2279,22 +2355,22 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{33713397-7411-489F-B0BC-4D422D2052DA}">
       <formula1>"False, True,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:B63 B37:B38 B51:B52 B79:B80" xr:uid="{DE597879-E42D-4CB3-8055-6A2B7C92604D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64:B65 B82:B83 B52:B53 B37:B38" xr:uid="{DE597879-E42D-4CB3-8055-6A2B7C92604D}">
       <formula1>"True, False,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83" xr:uid="{3BC1C23A-7243-45B2-ADCD-10EC6C1DB8D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86" xr:uid="{3BC1C23A-7243-45B2-ADCD-10EC6C1DB8D2}">
       <formula1>"False, True, 0, 1"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{55085296-BFE3-46DC-A3BC-7C4B98F81B5C}">
       <formula1>"go, rh"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21 B27 B39" xr:uid="{980EDA33-1749-49C6-B0CA-CCE660BFD42A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21 B27 B40" xr:uid="{980EDA33-1749-49C6-B0CA-CCE660BFD42A}">
       <formula1>"AC, DC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40" xr:uid="{437D8778-40D3-45A7-8C87-74EAFFED1B04}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{437D8778-40D3-45A7-8C87-74EAFFED1B04}">
       <formula1>"True, False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53 B64 B81" xr:uid="{D32D9107-3C35-41C8-BD09-D7C3EC346ECD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54 B66 B84" xr:uid="{D32D9107-3C35-41C8-BD09-D7C3EC346ECD}">
       <formula1>"AC,DC,"</formula1>
     </dataValidation>
   </dataValidations>

--- a/input/_excel/example.xlsx
+++ b/input/_excel/example.xlsx
@@ -1,35 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga35vuk\Desktop\mg_ev_opti\input\_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA261BEC-AC85-4E5E-A0AC-17797A06876A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84377286-EA14-4745-8BEA-1F42A347914E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="4800" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{73BD2749-5E13-4C00-9545-BF8A7C205FF5}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15450" activeTab="2" xr2:uid="{73BD2749-5E13-4C00-9545-BF8A7C205FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="global_settings" sheetId="2" r:id="rId1"/>
-    <sheet name="baseline" sheetId="1" r:id="rId2"/>
+    <sheet name="gen_only_1y" sheetId="1" r:id="rId2"/>
+    <sheet name="gen_only_10y" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="184">
-  <si>
-    <t>Simulation Options</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="228">
   <si>
     <t>-</t>
   </si>
@@ -64,48 +73,24 @@
     <t>go</t>
   </si>
   <si>
-    <t>go: global optimum (no operating strategy), rh: rolling horizon strategy</t>
-  </si>
-  <si>
     <t>rh_ph</t>
   </si>
   <si>
     <t>[h]</t>
   </si>
   <si>
-    <t>predicted horizon in h</t>
-  </si>
-  <si>
     <t>rh_ch</t>
   </si>
   <si>
-    <t>overlap horizon in h</t>
-  </si>
-  <si>
     <t>Project Data</t>
   </si>
   <si>
-    <t>Project start date (DD.MM.YYYY)</t>
-  </si>
-  <si>
     <t>[d]</t>
   </si>
   <si>
-    <t>Simulation timeframe in days</t>
-  </si>
-  <si>
     <t>[y]</t>
   </si>
   <si>
-    <t>Project duration in years</t>
-  </si>
-  <si>
-    <t>unitless weighted average cost of capital for the project</t>
-  </si>
-  <si>
-    <t>Transformer Settings</t>
-  </si>
-  <si>
     <t>ac_dc_eff</t>
   </si>
   <si>
@@ -124,48 +109,30 @@
     <t>dem_filename</t>
   </si>
   <si>
-    <t>input data file containing timeseries for electricity demand in W</t>
-  </si>
-  <si>
-    <t>Wind Component Data</t>
-  </si>
-  <si>
     <t>wind_enable</t>
   </si>
   <si>
     <t>wind_filename</t>
   </si>
   <si>
-    <t>name of the normalized wind power profile csv file in ./scenarios to evaluate</t>
-  </si>
-  <si>
     <t>wind_sce</t>
   </si>
   <si>
     <t>[$/W]</t>
   </si>
   <si>
-    <t>specific capital expenses of the component in $/W</t>
-  </si>
-  <si>
     <t>wind_sme</t>
   </si>
   <si>
     <t>[$/W*y]</t>
   </si>
   <si>
-    <t>specific maintenance expenses of the component in $/(W*year)</t>
-  </si>
-  <si>
     <t>wind_soe</t>
   </si>
   <si>
     <t>[$/Wh]</t>
   </si>
   <si>
-    <t>specific operational expenses of the component in $/Wh</t>
-  </si>
-  <si>
     <t>wind_ls</t>
   </si>
   <si>
@@ -181,21 +148,12 @@
     <t>[W]</t>
   </si>
   <si>
-    <t>component size (peak) in kW, only valid if sim_cs["wind"]==False</t>
-  </si>
-  <si>
-    <t>PV Component Data</t>
-  </si>
-  <si>
     <t>pv_enable</t>
   </si>
   <si>
     <t>pv_filename</t>
   </si>
   <si>
-    <t>name of the normalized pv power profile csv file in ./scenarios to evaluate</t>
-  </si>
-  <si>
     <t>pv_sce</t>
   </si>
   <si>
@@ -223,30 +181,18 @@
     <t>pv_cs</t>
   </si>
   <si>
-    <t>component size (peak) in W, only valid if sim_cs["pv"]==False</t>
-  </si>
-  <si>
-    <t>Generator Component Data</t>
-  </si>
-  <si>
     <t>gen_enable</t>
   </si>
   <si>
     <t>gen_sce</t>
   </si>
   <si>
-    <t>specific capital expenses of the component in $/W (original 1.15)</t>
-  </si>
-  <si>
     <t>gen_sme</t>
   </si>
   <si>
     <t>gen_soe</t>
   </si>
   <si>
-    <t>specific operational expenses of the component in $/Wh (original 0.00036)</t>
-  </si>
-  <si>
     <t>gen_ls</t>
   </si>
   <si>
@@ -256,30 +202,18 @@
     <t>gen_cs</t>
   </si>
   <si>
-    <t>component size in W, only valid if sim_cs["gen"]==False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS Component Data </t>
-  </si>
-  <si>
     <t>ess_enable</t>
   </si>
   <si>
     <t>ess_sce</t>
   </si>
   <si>
-    <t>specific capital expenses of the component in $/Wh</t>
-  </si>
-  <si>
     <t>ess_sme</t>
   </si>
   <si>
     <t>[$/Wh*y]</t>
   </si>
   <si>
-    <t>specific maintenance expenses of the component in $/(Wh*year)</t>
-  </si>
-  <si>
     <t>ess_soe</t>
   </si>
   <si>
@@ -289,30 +223,18 @@
     <t>ess_chg_eff</t>
   </si>
   <si>
-    <t>charging efficiency</t>
-  </si>
-  <si>
     <t>ess_dis_eff</t>
   </si>
   <si>
-    <t>discharge efficiency</t>
-  </si>
-  <si>
     <t>ess_chg_crate</t>
   </si>
   <si>
     <t>[1/h]</t>
   </si>
   <si>
-    <t>maximum charging C-rate in 1/h</t>
-  </si>
-  <si>
     <t>ess_dis_crate</t>
   </si>
   <si>
-    <t>maximum discharging C-rate in 1/h</t>
-  </si>
-  <si>
     <t>ess_init_soc</t>
   </si>
   <si>
@@ -322,12 +244,6 @@
     <t>ess_sd</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>self-discharge rate of the component in ???</t>
-  </si>
-  <si>
     <t>ess_cdc</t>
   </si>
   <si>
@@ -337,12 +253,6 @@
     <t>[Wh]</t>
   </si>
   <si>
-    <t>component size in Wh, only valid if sim_cs["ess"]==False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEV Component Data </t>
-  </si>
-  <si>
     <t>bev_enable</t>
   </si>
   <si>
@@ -352,15 +262,9 @@
     <t>bev_agr</t>
   </si>
   <si>
-    <t>boolean triggering simplified simulation of BEVs as a single set of components when true</t>
-  </si>
-  <si>
     <t>bev_num</t>
   </si>
   <si>
-    <t>number of vehicles to be simulated</t>
-  </si>
-  <si>
     <t>bev_sce</t>
   </si>
   <si>
@@ -376,9 +280,6 @@
     <t>bev_init_soc</t>
   </si>
   <si>
-    <t>[%]</t>
-  </si>
-  <si>
     <t>bev_chg_pwr</t>
   </si>
   <si>
@@ -403,9 +304,6 @@
     <t>bev_cs</t>
   </si>
   <si>
-    <t>battery size of vehicles in Wh, only valid if sim_cs["bev"]==False</t>
-  </si>
-  <si>
     <t>cc</t>
   </si>
   <si>
@@ -478,9 +376,6 @@
     <t>minimum variable cost for transformers to disincentivize circular flow</t>
   </si>
   <si>
-    <t xml:space="preserve">Stationary Demand Data </t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
@@ -496,12 +391,6 @@
     <t>dem_connection</t>
   </si>
   <si>
-    <t>wind_size</t>
-  </si>
-  <si>
-    <t>(lat,lon)</t>
-  </si>
-  <si>
     <t>gen_connection</t>
   </si>
   <si>
@@ -511,30 +400,18 @@
     <t>bev_connection</t>
   </si>
   <si>
-    <t>RH Operational Strategy Settings</t>
-  </si>
-  <si>
     <t>parallel</t>
   </si>
   <si>
     <t>"True activates parallel solving of all sxenarios using all available CPU cores</t>
   </si>
   <si>
-    <t>SL_Bump_total.csv</t>
-  </si>
-  <si>
-    <t>Bumpeh</t>
-  </si>
-  <si>
     <t>wind_example</t>
   </si>
   <si>
     <t>bev_example</t>
   </si>
   <si>
-    <t>pv_api_location</t>
-  </si>
-  <si>
     <t>pv_use_api</t>
   </si>
   <si>
@@ -553,9 +430,6 @@
     <t>bev_opt</t>
   </si>
   <si>
-    <t>(1,1)</t>
-  </si>
-  <si>
     <t>pv_eff</t>
   </si>
   <si>
@@ -571,20 +445,290 @@
     <t>bev_eff</t>
   </si>
   <si>
-    <t>transformer efficiency for feed-in to main bus</t>
-  </si>
-  <si>
-    <t>transformer efficiency for every commodity's connection</t>
-  </si>
-  <si>
     <t>bev_int_lvl</t>
+  </si>
+  <si>
+    <t>pv_latitude</t>
+  </si>
+  <si>
+    <t>dem_example</t>
+  </si>
+  <si>
+    <t>pv_longitude</t>
+  </si>
+  <si>
+    <t>pv_example</t>
+  </si>
+  <si>
+    <t>wind_cs</t>
+  </si>
+  <si>
+    <t>nominal component size, only used if pv_opt is "False"</t>
+  </si>
+  <si>
+    <t>nominal component size, only used if wind_opt is "False"</t>
+  </si>
+  <si>
+    <t>energy system project duration in years, used for economic calculations</t>
+  </si>
+  <si>
+    <t>unitless weighted average cost of capital for the project, used for economic calculations</t>
+  </si>
+  <si>
+    <t>control horizon length</t>
+  </si>
+  <si>
+    <t>prediction horizon length</t>
+  </si>
+  <si>
+    <t>Rolling Horizon Strategy</t>
+  </si>
+  <si>
+    <t>General Simulation</t>
+  </si>
+  <si>
+    <t>Simulation timeframe</t>
+  </si>
+  <si>
+    <t>Dispatch strategy: go: global optimum (enables component sizing), rh: rolling horizon strategy</t>
+  </si>
+  <si>
+    <t>System Core Block</t>
+  </si>
+  <si>
+    <t>Fixed Demand Block</t>
+  </si>
+  <si>
+    <t>Wind Energy Block</t>
+  </si>
+  <si>
+    <t>Photovoltaic Energy Block</t>
+  </si>
+  <si>
+    <t>Fossil Fuel Generator Block</t>
+  </si>
+  <si>
+    <t>Stationary Energy Storage Block</t>
+  </si>
+  <si>
+    <t>Battery Rental System Block</t>
+  </si>
+  <si>
+    <t>Battery Electric Vehicle Block</t>
+  </si>
+  <si>
+    <t>brs_enable</t>
+  </si>
+  <si>
+    <t>brs_opt</t>
+  </si>
+  <si>
+    <t>brs_connection</t>
+  </si>
+  <si>
+    <t>brs_filename</t>
+  </si>
+  <si>
+    <t>brs_agr</t>
+  </si>
+  <si>
+    <t>brs_num</t>
+  </si>
+  <si>
+    <t>brs_sce</t>
+  </si>
+  <si>
+    <t>brs_sme</t>
+  </si>
+  <si>
+    <t>brs_soe</t>
+  </si>
+  <si>
+    <t>brs_ls</t>
+  </si>
+  <si>
+    <t>brs_init_soc</t>
+  </si>
+  <si>
+    <t>brs_chg_pwr</t>
+  </si>
+  <si>
+    <t>brs_dis_pwr</t>
+  </si>
+  <si>
+    <t>brs_eff</t>
+  </si>
+  <si>
+    <t>brs_charge_eff</t>
+  </si>
+  <si>
+    <t>brs_discharge_eff</t>
+  </si>
+  <si>
+    <t>brs_cdc</t>
+  </si>
+  <si>
+    <t>brs_cs</t>
+  </si>
+  <si>
+    <t>feature in development, unsused so far</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trigger controlling component size optimization of the block </t>
+  </si>
+  <si>
+    <t>trigger controlling existence of the block in the energy system</t>
+  </si>
+  <si>
+    <t>"go", "rh"</t>
+  </si>
+  <si>
+    <t>dd.mm.yyy</t>
+  </si>
+  <si>
+    <t>energy system project start date, used as beginning of simulation period and for data retrieval</t>
+  </si>
+  <si>
+    <t>"True", "False"</t>
+  </si>
+  <si>
+    <t>"AC", "DC"</t>
+  </si>
+  <si>
+    <t>charging efficiency of storage</t>
+  </si>
+  <si>
+    <t>discharge efficiency of storage</t>
+  </si>
+  <si>
+    <t>maximum charging C-rate</t>
+  </si>
+  <si>
+    <t>maximum discharging C-rate</t>
+  </si>
+  <si>
+    <t>self-discharge rate of storage</t>
+  </si>
+  <si>
+    <t>nominal storage size, only used if ess_opt is "False"</t>
+  </si>
+  <si>
+    <t>nominal component size, only used if gen_opt is "False"</t>
+  </si>
+  <si>
+    <t>name of the csv file in ./input/wind to evaluate</t>
+  </si>
+  <si>
+    <t>name of the csv file in ./input/dem to evaluate</t>
+  </si>
+  <si>
+    <t>Utility Grid Connection Block</t>
+  </si>
+  <si>
+    <t>grid_enable</t>
+  </si>
+  <si>
+    <t>grid_opt</t>
+  </si>
+  <si>
+    <t>grid_cs</t>
+  </si>
+  <si>
+    <t>grid_connection</t>
+  </si>
+  <si>
+    <t>grid_sce</t>
+  </si>
+  <si>
+    <t>grid_sme</t>
+  </si>
+  <si>
+    <t>grid_soe</t>
+  </si>
+  <si>
+    <t>grid_ls</t>
+  </si>
+  <si>
+    <t>grid_cdc</t>
+  </si>
+  <si>
+    <t>grid_eff</t>
+  </si>
+  <si>
+    <t>specific capital expenses in first project year</t>
+  </si>
+  <si>
+    <t>specific time-based maintenance expenses</t>
+  </si>
+  <si>
+    <t>specific operational expenses (incl. output-based maintenance)</t>
+  </si>
+  <si>
+    <t>trigger controlling usage of PVGIS API</t>
+  </si>
+  <si>
+    <t>[°]</t>
+  </si>
+  <si>
+    <t>PVGIS API location latitude to evaluate, north is positive, decimal format</t>
+  </si>
+  <si>
+    <t>PVGIS API location longitude to evaluate, east is positive, decimal format</t>
+  </si>
+  <si>
+    <t>lifespan of the block</t>
+  </si>
+  <si>
+    <t>name of the csv file in ./input/pv to evaluate, only used if pv_use_api is "False"</t>
+  </si>
+  <si>
+    <t>name of the csv file in ./input/bev to evaluate</t>
+  </si>
+  <si>
+    <t>name of the csv file in ./input/brs to evaluate</t>
+  </si>
+  <si>
+    <t>trigger activating simplified aggregated simulation of commodities</t>
+  </si>
+  <si>
+    <t>brs_example</t>
+  </si>
+  <si>
+    <t>number of equal commodities to be simulated</t>
+  </si>
+  <si>
+    <t>maximum allowable charge power for one commodity</t>
+  </si>
+  <si>
+    <t>maximum allowable discharge power for one commodity</t>
+  </si>
+  <si>
+    <t>transformer efficiency for feed-in from aggregator to main bus</t>
+  </si>
+  <si>
+    <t>transformer efficiency for every commodity's  aggregator connection</t>
+  </si>
+  <si>
+    <t>transformer efficiency for every commodity's aggregator connection</t>
+  </si>
+  <si>
+    <t>battery size of one commodity, only used if brs_opt is "False"</t>
+  </si>
+  <si>
+    <t>brs_int_lvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charging integration level of commodities  </t>
+  </si>
+  <si>
+    <t>"uc", ("tc"), "cc", "v2v", "v2g"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,8 +776,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -652,6 +831,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -665,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -696,6 +881,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,18 +1224,18 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1033,128 +1243,128 @@
     </row>
     <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="B10" s="7">
-        <v>1E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1176,21 +1386,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD09034-A1CD-4ECF-9F82-6F45633B0EDC}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="18.54296875" customWidth="1"/>
+    <col min="1" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1198,44 +1409,44 @@
     </row>
     <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1">
         <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
+      <c r="C4" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1243,7 +1454,7 @@
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1251,30 +1462,30 @@
     </row>
     <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1282,7 +1493,7 @@
     </row>
     <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1290,44 +1501,44 @@
     </row>
     <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B11" s="8">
         <v>38367</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1335,7 +1546,7 @@
     </row>
     <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1343,215 +1554,232 @@
     </row>
     <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
         <v>0.95</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>0.95</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="7">
+        <v>100000</v>
+      </c>
+      <c r="C27" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="1">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1">
         <v>1.355</v>
       </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>47</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>49</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" s="7">
-        <v>100000</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1559,7 +1787,7 @@
     </row>
     <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1567,814 +1795,3037 @@
     </row>
     <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>183</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>183</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B39" s="7">
         <v>36250</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>153</v>
+      <c r="A40" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>175</v>
+        <v>136</v>
+      </c>
+      <c r="B42" s="1">
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>209</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>165</v>
+        <v>138</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>209</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
+        <v>37</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>47</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="1">
         <v>0.95</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1</v>
-      </c>
+      <c r="C50" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>183</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>151</v>
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="1">
-        <v>1.1499999999999999</v>
+        <v>53</v>
+      </c>
+      <c r="B55" s="7">
+        <v>30000</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>69</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="1">
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>42</v>
+      <c r="A56" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B57" s="1">
-        <v>6.4999999999999997E-4</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B58" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B59" s="1">
-        <v>1</v>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="C59" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>49</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="7">
-        <v>30000</v>
+        <v>51</v>
+      </c>
+      <c r="B60" s="1">
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="18">
         <v>1</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="C62" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" t="s">
+    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="22"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" s="23">
+        <v>30000</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="18">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" s="18">
+        <v>0</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="18">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" s="18">
+        <v>10</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="C73" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C67" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s">
-        <v>44</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70" s="1">
-        <v>10</v>
-      </c>
-      <c r="C70" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B72" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B74" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C74" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="1">
-        <v>0</v>
-      </c>
-      <c r="C76" t="s">
-        <v>98</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="C74" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B77" s="1">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B78" s="7">
-        <v>160000</v>
+        <v>128</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B79" s="1">
-        <v>1</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="B79" s="7">
+        <v>160000</v>
+      </c>
+      <c r="C79" t="s">
+        <v>70</v>
       </c>
       <c r="D79" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80" s="14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="4"/>
+    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>151</v>
+        <v>59</v>
+      </c>
+      <c r="B84" s="1">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>167</v>
+        <v>60</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.9</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B86" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="B87" s="1">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="C87" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B88" s="1">
         <v>0.8</v>
       </c>
       <c r="C88" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="B89" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C89" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B91" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B92" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C92" t="s">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B93" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C93" t="s">
-        <v>50</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B94" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C94" t="s">
-        <v>50</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>120</v>
-      </c>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
     </row>
     <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B95" s="1">
-        <v>1</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>183</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B96" s="1">
-        <v>0.95</v>
+        <v>129</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B97" s="1">
-        <v>0.95</v>
+        <v>87</v>
+      </c>
+      <c r="B97" s="7">
+        <v>30000</v>
       </c>
       <c r="C97" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" t="s">
+        <v>227</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="1">
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>183</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B102" s="1">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="1">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="1">
         <v>1</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C110" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" s="1">
         <v>1</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B99" s="7">
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="117" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>183</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>183</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B120" s="7">
         <v>30000</v>
       </c>
-      <c r="C99" t="s">
-        <v>102</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="12" t="s">
+      <c r="C120" t="s">
+        <v>70</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B121" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121" t="s">
+        <v>227</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
         <v>183</v>
       </c>
-      <c r="B100" t="s">
-        <v>126</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="D124" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B125" s="1">
+        <v>10</v>
+      </c>
+      <c r="C125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>30</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>57</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B129" s="1">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C131" t="s">
+        <v>35</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C132" t="s">
+        <v>35</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" s="1">
         <v>1</v>
       </c>
-      <c r="D100" s="6" t="s">
-        <v>127</v>
+      <c r="C133" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B26" xr:uid="{7E208AF1-FB75-4817-8593-A33063237BF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B26:B27" xr:uid="{7E208AF1-FB75-4817-8593-A33063237BF9}">
       <formula1>"False, True"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{33713397-7411-489F-B0BC-4D422D2052DA}">
       <formula1>"False, True,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64:B65 B82:B83 B52:B53 B37:B38" xr:uid="{DE597879-E42D-4CB3-8055-6A2B7C92604D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B95:B98 B53:B55 B37:B38 B118:B121 B65:B67" xr:uid="{DE597879-E42D-4CB3-8055-6A2B7C92604D}">
       <formula1>"True, False,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86" xr:uid="{3BC1C23A-7243-45B2-ADCD-10EC6C1DB8D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101 B124" xr:uid="{3BC1C23A-7243-45B2-ADCD-10EC6C1DB8D2}">
       <formula1>"False, True, 0, 1"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{55085296-BFE3-46DC-A3BC-7C4B98F81B5C}">
       <formula1>"go, rh"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21 B27 B40" xr:uid="{980EDA33-1749-49C6-B0CA-CCE660BFD42A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21 B28 B40" xr:uid="{980EDA33-1749-49C6-B0CA-CCE660BFD42A}">
       <formula1>"AC, DC"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{437D8778-40D3-45A7-8C87-74EAFFED1B04}">
       <formula1>"True, False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54 B66 B84" xr:uid="{D32D9107-3C35-41C8-BD09-D7C3EC346ECD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56 B80 B99 B122 B68" xr:uid="{D32D9107-3C35-41C8-BD09-D7C3EC346ECD}">
       <formula1>"AC,DC,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FD44A-EE3E-4866-9B69-B0486F37B3CD}">
+  <dimension ref="A1:E136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1">
+        <v>350</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="8">
+        <v>38353</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="7">
+        <v>100000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.355</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="7">
+        <v>36250</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="1">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="1">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7">
+        <v>30000</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="1">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="1">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="18">
+        <v>1</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="22"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" s="23">
+        <v>30000</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="18">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" s="18">
+        <v>0</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="18">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" s="18">
+        <v>10</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" s="18">
+        <v>1</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" s="18">
+        <v>1</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="7">
+        <v>160000</v>
+      </c>
+      <c r="C79" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="1">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>183</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="7">
+        <v>30000</v>
+      </c>
+      <c r="C97" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" t="s">
+        <v>227</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>183</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B102" s="1">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="1">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="117" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>183</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>183</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B120" s="7">
+        <v>30000</v>
+      </c>
+      <c r="C120" t="s">
+        <v>70</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B121" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121" t="s">
+        <v>227</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>183</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B125" s="1">
+        <v>10</v>
+      </c>
+      <c r="C125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>30</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>57</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B129" s="1">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C131" t="s">
+        <v>35</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C132" t="s">
+        <v>35</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56 B80 B99 B122 B68" xr:uid="{B0CF6AA4-3DAE-4E12-AF49-7CD9F3F3DC23}">
+      <formula1>"AC,DC,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{ADF9E599-036C-407F-B6BD-BF75063B034F}">
+      <formula1>"True, False"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21 B28 B40" xr:uid="{86AE724E-A474-48EC-BF75-A627D82EA301}">
+      <formula1>"AC, DC"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{BA556D82-0D17-4816-AF04-621DD25172DB}">
+      <formula1>"go, rh"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101 B124" xr:uid="{8F4D9E0A-7BC1-4500-A5A9-79A6A742AA82}">
+      <formula1>"False, True, 0, 1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B95:B98 B53:B55 B37:B38 B118:B121 B65:B67" xr:uid="{BA38FAA2-20AD-4557-B505-67C8D6478C3A}">
+      <formula1>"True, False,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{44936CB0-8062-4632-BC8A-41DC294A59BB}">
+      <formula1>"False, True,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B26:B27" xr:uid="{0A62F5B9-40F6-4075-A1E2-352BFC326CC6}">
+      <formula1>"False, True"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/input/_excel/example.xlsx
+++ b/input/_excel/example.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga35vuk\Desktop\mg_ev_opti\input\_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanneshenglein/Desktop/Masterarbeit/mg_ev_opti/input/_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55409FB7-B83C-416E-9ECC-01862A9B09CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FEF15C-3E5B-DC43-905D-6A096D608DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{73BD2749-5E13-4C00-9545-BF8A7C205FF5}"/>
+    <workbookView xWindow="-1780" yWindow="-20620" windowWidth="29700" windowHeight="17880" activeTab="1" xr2:uid="{73BD2749-5E13-4C00-9545-BF8A7C205FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="global_settings" sheetId="2" r:id="rId1"/>
-    <sheet name="gen_go" sheetId="1" r:id="rId2"/>
-    <sheet name="gen_pv_ess_go" sheetId="16" r:id="rId3"/>
-    <sheet name="gen_pv_ess_rh" sheetId="22" r:id="rId4"/>
-    <sheet name="gen_pv_ess_bev_go" sheetId="18" r:id="rId5"/>
+    <sheet name="gen_pv_ess_bev_go" sheetId="18" r:id="rId2"/>
+    <sheet name="gen_go" sheetId="1" r:id="rId3"/>
+    <sheet name="gen_pv_ess_go" sheetId="16" r:id="rId4"/>
+    <sheet name="gen_pv_ess_rh" sheetId="22" r:id="rId5"/>
     <sheet name="gen_pv_ess_bev_rh" sheetId="21" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -33,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -915,7 +914,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -931,7 +930,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1230,16 +1229,16 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>107</v>
       </c>
@@ -1247,7 +1246,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>90</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>120</v>
       </c>
@@ -1275,7 +1274,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>102</v>
       </c>
@@ -1289,7 +1288,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>91</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>96</v>
       </c>
@@ -1317,7 +1316,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>92</v>
       </c>
@@ -1331,7 +1330,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>93</v>
       </c>
@@ -1345,7 +1344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>94</v>
       </c>
@@ -1359,7 +1358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>95</v>
       </c>
@@ -1391,6 +1390,1725 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF62ACA-EE29-4499-ACA4-9FBD07A19BB0}">
+  <dimension ref="A1:E134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1">
+        <v>365</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="8">
+        <v>38367</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="7">
+        <v>100000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.355</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="7">
+        <v>36250</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="1">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="1">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7">
+        <v>30000</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="1">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="1">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="18">
+        <v>1</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="22"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B67" s="23">
+        <v>30000</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" s="18">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="18">
+        <v>0</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="18">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="18">
+        <v>10</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" s="18">
+        <v>1</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" s="18">
+        <v>1</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="7">
+        <v>160000</v>
+      </c>
+      <c r="C79" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="1">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>176</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>176</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="7">
+        <v>30000</v>
+      </c>
+      <c r="C97" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B101" s="18">
+        <v>0</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B102" s="1">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="1">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>176</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B118" s="7">
+        <v>30000</v>
+      </c>
+      <c r="C118" t="s">
+        <v>70</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C119" t="s">
+        <v>219</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B122" s="18">
+        <v>0</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123" s="1">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>57</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>30</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B127" s="1">
+        <v>10</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B129" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C129" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B130" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C130" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C132" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B133" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C133" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B26:B27" xr:uid="{BC87F18E-AC1C-42F2-BB7D-3ACA0463842D}">
+      <formula1>"False, True"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B95:B98 B53:B55 B37:B38 B116:B119 B65:B67" xr:uid="{D5E2BD5A-2B48-4AF1-A521-5C2B2368B926}">
+      <formula1>"True, False,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122 B25 B101" xr:uid="{84A2AD9B-AA4B-4479-88C8-6E4180A5A2E9}">
+      <formula1>"False, True,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{48E0CB6D-9B4B-40F6-BEFD-70D7DB0533D5}">
+      <formula1>"go, rh"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21 B28 B40" xr:uid="{2B2C56A8-A2CF-42A6-8437-2636163CA6AC}">
+      <formula1>"AC, DC"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{54A76F11-C492-4E58-9875-6513F4688FE7}">
+      <formula1>"True, False"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56 B80 B99 B120 B68" xr:uid="{E3D9465C-D412-44B2-B8BF-338A652A1284}">
+      <formula1>"AC,DC,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD09034-A1CD-4ECF-9F82-6F45633B0EDC}">
   <dimension ref="A1:E134"/>
   <sheetViews>
@@ -1398,14 +3116,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>
@@ -1413,7 +3131,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>99</v>
       </c>
@@ -1427,7 +3145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>100</v>
       </c>
@@ -1441,7 +3159,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1455,10 +3173,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>147</v>
       </c>
@@ -1466,7 +3184,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -1480,7 +3198,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -1494,10 +3212,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1505,7 +3223,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>98</v>
       </c>
@@ -1519,7 +3237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>97</v>
       </c>
@@ -1533,7 +3251,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>101</v>
       </c>
@@ -1547,10 +3265,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>151</v>
       </c>
@@ -1558,7 +3276,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
@@ -1572,7 +3290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
@@ -1586,10 +3304,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>220</v>
       </c>
@@ -1597,7 +3315,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
@@ -1611,7 +3329,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>116</v>
       </c>
@@ -1626,7 +3344,7 @@
       </c>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>22</v>
       </c>
@@ -1640,7 +3358,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>221</v>
       </c>
@@ -1648,7 +3366,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>23</v>
       </c>
@@ -1662,7 +3380,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>125</v>
       </c>
@@ -1676,7 +3394,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>140</v>
       </c>
@@ -1690,7 +3408,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>115</v>
       </c>
@@ -1704,7 +3422,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>24</v>
       </c>
@@ -1718,7 +3436,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>25</v>
       </c>
@@ -1732,7 +3450,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>27</v>
       </c>
@@ -1746,7 +3464,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>29</v>
       </c>
@@ -1760,7 +3478,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>31</v>
       </c>
@@ -1774,7 +3492,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>33</v>
       </c>
@@ -1788,10 +3506,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>222</v>
       </c>
@@ -1799,7 +3517,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>36</v>
       </c>
@@ -1813,7 +3531,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>126</v>
       </c>
@@ -1827,7 +3545,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>46</v>
       </c>
@@ -1841,7 +3559,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>113</v>
       </c>
@@ -1855,7 +3573,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>124</v>
       </c>
@@ -1866,7 +3584,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>136</v>
       </c>
@@ -1880,7 +3598,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>138</v>
       </c>
@@ -1894,7 +3612,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>37</v>
       </c>
@@ -1908,7 +3626,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>38</v>
       </c>
@@ -1922,7 +3640,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>40</v>
       </c>
@@ -1936,7 +3654,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>42</v>
       </c>
@@ -1950,7 +3668,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>43</v>
       </c>
@@ -1964,7 +3682,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>44</v>
       </c>
@@ -1978,7 +3696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>130</v>
       </c>
@@ -1992,10 +3710,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>223</v>
       </c>
@@ -2003,7 +3721,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>47</v>
       </c>
@@ -2017,7 +3735,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>127</v>
       </c>
@@ -2031,7 +3749,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>53</v>
       </c>
@@ -2045,7 +3763,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
         <v>117</v>
       </c>
@@ -2059,7 +3777,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>48</v>
       </c>
@@ -2073,7 +3791,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>49</v>
       </c>
@@ -2087,7 +3805,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>50</v>
       </c>
@@ -2101,7 +3819,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>51</v>
       </c>
@@ -2115,7 +3833,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>52</v>
       </c>
@@ -2129,7 +3847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
         <v>132</v>
       </c>
@@ -2143,13 +3861,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="20"/>
     </row>
-    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>224</v>
       </c>
@@ -2157,7 +3875,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
         <v>187</v>
       </c>
@@ -2171,7 +3889,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
         <v>188</v>
       </c>
@@ -2185,7 +3903,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
         <v>189</v>
       </c>
@@ -2199,7 +3917,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
         <v>190</v>
       </c>
@@ -2213,7 +3931,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
         <v>191</v>
       </c>
@@ -2227,7 +3945,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>192</v>
       </c>
@@ -2241,7 +3959,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
         <v>193</v>
       </c>
@@ -2255,7 +3973,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
         <v>194</v>
       </c>
@@ -2269,7 +3987,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
         <v>195</v>
       </c>
@@ -2283,7 +4001,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>196</v>
       </c>
@@ -2297,7 +4015,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>225</v>
       </c>
@@ -2305,7 +4023,7 @@
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>54</v>
       </c>
@@ -2319,7 +4037,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>128</v>
       </c>
@@ -2333,7 +4051,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>69</v>
       </c>
@@ -2347,7 +4065,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>118</v>
       </c>
@@ -2361,7 +4079,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
         <v>55</v>
       </c>
@@ -2375,7 +4093,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
         <v>56</v>
       </c>
@@ -2389,7 +4107,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>58</v>
       </c>
@@ -2403,7 +4121,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>59</v>
       </c>
@@ -2417,7 +4135,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>60</v>
       </c>
@@ -2431,7 +4149,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>61</v>
       </c>
@@ -2445,7 +4163,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>62</v>
       </c>
@@ -2459,7 +4177,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>64</v>
       </c>
@@ -2473,7 +4191,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>65</v>
       </c>
@@ -2487,7 +4205,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>67</v>
       </c>
@@ -2501,7 +4219,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>68</v>
       </c>
@@ -2515,7 +4233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>133</v>
       </c>
@@ -2529,10 +4247,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>226</v>
       </c>
@@ -2540,7 +4258,7 @@
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
         <v>71</v>
       </c>
@@ -2554,7 +4272,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>129</v>
       </c>
@@ -2568,7 +4286,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
         <v>87</v>
       </c>
@@ -2582,7 +4300,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>135</v>
       </c>
@@ -2596,7 +4314,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
         <v>119</v>
       </c>
@@ -2610,7 +4328,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>72</v>
       </c>
@@ -2624,7 +4342,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
         <v>73</v>
       </c>
@@ -2638,7 +4356,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>74</v>
       </c>
@@ -2652,7 +4370,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>75</v>
       </c>
@@ -2666,7 +4384,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>76</v>
       </c>
@@ -2680,7 +4398,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>77</v>
       </c>
@@ -2694,7 +4412,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>78</v>
       </c>
@@ -2708,7 +4426,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
         <v>79</v>
       </c>
@@ -2722,7 +4440,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
         <v>80</v>
       </c>
@@ -2736,7 +4454,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>82</v>
       </c>
@@ -2750,7 +4468,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
         <v>134</v>
       </c>
@@ -2764,7 +4482,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>84</v>
       </c>
@@ -2778,7 +4496,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
         <v>85</v>
       </c>
@@ -2792,7 +4510,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>86</v>
       </c>
@@ -2806,7 +4524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>227</v>
       </c>
@@ -2814,7 +4532,7 @@
       <c r="C115" s="3"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
         <v>152</v>
       </c>
@@ -2828,7 +4546,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="117" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>153</v>
       </c>
@@ -2842,7 +4560,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
         <v>169</v>
       </c>
@@ -2856,7 +4574,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>217</v>
       </c>
@@ -2870,7 +4588,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
         <v>154</v>
       </c>
@@ -2884,7 +4602,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
         <v>155</v>
       </c>
@@ -2898,7 +4616,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
         <v>156</v>
       </c>
@@ -2912,7 +4630,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
         <v>157</v>
       </c>
@@ -2926,7 +4644,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
         <v>158</v>
       </c>
@@ -2940,7 +4658,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
         <v>159</v>
       </c>
@@ -2954,7 +4672,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
         <v>160</v>
       </c>
@@ -2968,7 +4686,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
         <v>161</v>
       </c>
@@ -2982,7 +4700,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>162</v>
       </c>
@@ -2996,7 +4714,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
         <v>163</v>
       </c>
@@ -3010,7 +4728,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
         <v>164</v>
       </c>
@@ -3024,7 +4742,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
         <v>165</v>
       </c>
@@ -3038,7 +4756,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
         <v>166</v>
       </c>
@@ -3052,7 +4770,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
         <v>167</v>
       </c>
@@ -3066,7 +4784,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
         <v>168</v>
       </c>
@@ -3081,18 +4799,15 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B26:B27" xr:uid="{7E208AF1-FB75-4817-8593-A33063237BF9}">
       <formula1>"False, True"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25 B101" xr:uid="{33713397-7411-489F-B0BC-4D422D2052DA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25 B101 B122" xr:uid="{33713397-7411-489F-B0BC-4D422D2052DA}">
       <formula1>"False, True,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B95:B98 B53:B55 B37:B38 B116:B119 B65:B67" xr:uid="{DE597879-E42D-4CB3-8055-6A2B7C92604D}">
       <formula1>"True, False,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122" xr:uid="{3BC1C23A-7243-45B2-ADCD-10EC6C1DB8D2}">
-      <formula1>"False, True,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{55085296-BFE3-46DC-A3BC-7C4B98F81B5C}">
       <formula1>"go, rh"</formula1>
@@ -3112,7 +4827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3CB5BE-271B-4B49-8C77-E70933C410C3}">
   <dimension ref="A1:E134"/>
   <sheetViews>
@@ -3120,14 +4835,14 @@
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>
@@ -3135,7 +4850,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>99</v>
       </c>
@@ -3149,7 +4864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>100</v>
       </c>
@@ -3163,7 +4878,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -3177,10 +4892,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>147</v>
       </c>
@@ -3188,7 +4903,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -3202,7 +4917,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -3216,10 +4931,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -3227,7 +4942,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>98</v>
       </c>
@@ -3241,7 +4956,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>97</v>
       </c>
@@ -3255,7 +4970,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>101</v>
       </c>
@@ -3269,10 +4984,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>151</v>
       </c>
@@ -3280,7 +4995,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
@@ -3294,7 +5009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
@@ -3308,10 +5023,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>220</v>
       </c>
@@ -3319,7 +5034,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
@@ -3333,7 +5048,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>116</v>
       </c>
@@ -3348,7 +5063,7 @@
       </c>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>22</v>
       </c>
@@ -3362,7 +5077,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>221</v>
       </c>
@@ -3370,7 +5085,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>23</v>
       </c>
@@ -3384,7 +5099,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>125</v>
       </c>
@@ -3398,7 +5113,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>140</v>
       </c>
@@ -3412,7 +5127,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>115</v>
       </c>
@@ -3426,7 +5141,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>24</v>
       </c>
@@ -3440,7 +5155,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>25</v>
       </c>
@@ -3454,7 +5169,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>27</v>
       </c>
@@ -3468,7 +5183,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>29</v>
       </c>
@@ -3482,7 +5197,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>31</v>
       </c>
@@ -3496,7 +5211,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>33</v>
       </c>
@@ -3510,10 +5225,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>222</v>
       </c>
@@ -3521,7 +5236,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>36</v>
       </c>
@@ -3535,7 +5250,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>126</v>
       </c>
@@ -3549,7 +5264,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>46</v>
       </c>
@@ -3563,7 +5278,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>113</v>
       </c>
@@ -3577,7 +5292,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>124</v>
       </c>
@@ -3588,7 +5303,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>136</v>
       </c>
@@ -3602,7 +5317,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>138</v>
       </c>
@@ -3616,7 +5331,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>37</v>
       </c>
@@ -3630,7 +5345,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>38</v>
       </c>
@@ -3644,7 +5359,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>40</v>
       </c>
@@ -3658,7 +5373,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>42</v>
       </c>
@@ -3672,7 +5387,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>43</v>
       </c>
@@ -3686,7 +5401,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>44</v>
       </c>
@@ -3700,7 +5415,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>130</v>
       </c>
@@ -3714,10 +5429,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>223</v>
       </c>
@@ -3725,7 +5440,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>47</v>
       </c>
@@ -3739,7 +5454,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>127</v>
       </c>
@@ -3753,7 +5468,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>53</v>
       </c>
@@ -3767,7 +5482,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
         <v>117</v>
       </c>
@@ -3781,7 +5496,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>48</v>
       </c>
@@ -3795,7 +5510,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>49</v>
       </c>
@@ -3809,7 +5524,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>50</v>
       </c>
@@ -3823,7 +5538,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>51</v>
       </c>
@@ -3837,7 +5552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>52</v>
       </c>
@@ -3851,7 +5566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
         <v>132</v>
       </c>
@@ -3865,13 +5580,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="20"/>
     </row>
-    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>224</v>
       </c>
@@ -3879,7 +5594,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
         <v>187</v>
       </c>
@@ -3893,7 +5608,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
         <v>188</v>
       </c>
@@ -3907,7 +5622,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
         <v>189</v>
       </c>
@@ -3921,7 +5636,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
         <v>190</v>
       </c>
@@ -3935,7 +5650,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
         <v>191</v>
       </c>
@@ -3949,7 +5664,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>192</v>
       </c>
@@ -3963,7 +5678,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
         <v>193</v>
       </c>
@@ -3977,7 +5692,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
         <v>194</v>
       </c>
@@ -3991,7 +5706,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
         <v>195</v>
       </c>
@@ -4005,7 +5720,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>196</v>
       </c>
@@ -4019,7 +5734,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>225</v>
       </c>
@@ -4027,7 +5742,7 @@
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>54</v>
       </c>
@@ -4041,7 +5756,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>128</v>
       </c>
@@ -4055,7 +5770,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>69</v>
       </c>
@@ -4069,7 +5784,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>118</v>
       </c>
@@ -4083,7 +5798,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
         <v>55</v>
       </c>
@@ -4097,7 +5812,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
         <v>56</v>
       </c>
@@ -4111,7 +5826,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>58</v>
       </c>
@@ -4125,7 +5840,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>59</v>
       </c>
@@ -4139,7 +5854,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>60</v>
       </c>
@@ -4153,7 +5868,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>61</v>
       </c>
@@ -4167,7 +5882,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>62</v>
       </c>
@@ -4181,7 +5896,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>64</v>
       </c>
@@ -4195,7 +5910,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>65</v>
       </c>
@@ -4209,7 +5924,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>67</v>
       </c>
@@ -4223,7 +5938,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>68</v>
       </c>
@@ -4237,7 +5952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>133</v>
       </c>
@@ -4251,10 +5966,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>226</v>
       </c>
@@ -4262,7 +5977,7 @@
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
         <v>71</v>
       </c>
@@ -4276,7 +5991,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>129</v>
       </c>
@@ -4290,7 +6005,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
         <v>87</v>
       </c>
@@ -4304,7 +6019,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>135</v>
       </c>
@@ -4318,7 +6033,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
         <v>119</v>
       </c>
@@ -4332,7 +6047,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>72</v>
       </c>
@@ -4346,7 +6061,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
         <v>73</v>
       </c>
@@ -4360,7 +6075,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>74</v>
       </c>
@@ -4374,7 +6089,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>75</v>
       </c>
@@ -4388,7 +6103,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>76</v>
       </c>
@@ -4402,7 +6117,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>77</v>
       </c>
@@ -4416,7 +6131,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>78</v>
       </c>
@@ -4430,7 +6145,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
         <v>79</v>
       </c>
@@ -4444,7 +6159,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
         <v>80</v>
       </c>
@@ -4458,7 +6173,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>82</v>
       </c>
@@ -4472,7 +6187,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
         <v>134</v>
       </c>
@@ -4486,7 +6201,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>84</v>
       </c>
@@ -4500,7 +6215,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
         <v>85</v>
       </c>
@@ -4514,7 +6229,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>86</v>
       </c>
@@ -4528,7 +6243,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>227</v>
       </c>
@@ -4536,7 +6251,7 @@
       <c r="C115" s="3"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
         <v>152</v>
       </c>
@@ -4550,7 +6265,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="117" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>153</v>
       </c>
@@ -4564,7 +6279,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
         <v>169</v>
       </c>
@@ -4578,7 +6293,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>217</v>
       </c>
@@ -4592,7 +6307,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
         <v>154</v>
       </c>
@@ -4606,7 +6321,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
         <v>155</v>
       </c>
@@ -4620,7 +6335,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
         <v>156</v>
       </c>
@@ -4634,7 +6349,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
         <v>157</v>
       </c>
@@ -4648,7 +6363,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
         <v>158</v>
       </c>
@@ -4662,7 +6377,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
         <v>159</v>
       </c>
@@ -4676,7 +6391,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
         <v>160</v>
       </c>
@@ -4690,7 +6405,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
         <v>161</v>
       </c>
@@ -4704,7 +6419,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>162</v>
       </c>
@@ -4718,7 +6433,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
         <v>163</v>
       </c>
@@ -4732,7 +6447,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
         <v>164</v>
       </c>
@@ -4746,7 +6461,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
         <v>165</v>
       </c>
@@ -4760,7 +6475,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
         <v>166</v>
       </c>
@@ -4774,7 +6489,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
         <v>167</v>
       </c>
@@ -4788,7 +6503,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
         <v>168</v>
       </c>
@@ -4831,22 +6546,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5205A00-846D-4911-B4A8-26F7517D2539}">
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>
@@ -4854,7 +6569,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>99</v>
       </c>
@@ -4868,7 +6583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>100</v>
       </c>
@@ -4882,7 +6597,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -4896,10 +6611,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>147</v>
       </c>
@@ -4907,7 +6622,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -4921,7 +6636,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -4935,10 +6650,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -4946,7 +6661,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>98</v>
       </c>
@@ -4960,7 +6675,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>97</v>
       </c>
@@ -4974,7 +6689,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>101</v>
       </c>
@@ -4988,10 +6703,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>151</v>
       </c>
@@ -4999,7 +6714,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
@@ -5013,7 +6728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
@@ -5027,10 +6742,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>220</v>
       </c>
@@ -5038,7 +6753,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
@@ -5052,7 +6767,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>116</v>
       </c>
@@ -5067,7 +6782,7 @@
       </c>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>22</v>
       </c>
@@ -5081,7 +6796,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>221</v>
       </c>
@@ -5089,7 +6804,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>23</v>
       </c>
@@ -5103,7 +6818,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>125</v>
       </c>
@@ -5117,7 +6832,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>140</v>
       </c>
@@ -5131,7 +6846,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>115</v>
       </c>
@@ -5145,7 +6860,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>24</v>
       </c>
@@ -5159,7 +6874,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>25</v>
       </c>
@@ -5173,7 +6888,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>27</v>
       </c>
@@ -5187,7 +6902,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>29</v>
       </c>
@@ -5201,7 +6916,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>31</v>
       </c>
@@ -5215,7 +6930,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>33</v>
       </c>
@@ -5229,10 +6944,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>222</v>
       </c>
@@ -5240,7 +6955,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>36</v>
       </c>
@@ -5254,7 +6969,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>126</v>
       </c>
@@ -5268,7 +6983,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>46</v>
       </c>
@@ -5282,7 +6997,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>113</v>
       </c>
@@ -5296,7 +7011,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>124</v>
       </c>
@@ -5307,7 +7022,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>136</v>
       </c>
@@ -5321,7 +7036,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>138</v>
       </c>
@@ -5335,7 +7050,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>37</v>
       </c>
@@ -5349,7 +7064,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>38</v>
       </c>
@@ -5363,7 +7078,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>40</v>
       </c>
@@ -5377,7 +7092,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>42</v>
       </c>
@@ -5391,7 +7106,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>43</v>
       </c>
@@ -5405,7 +7120,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>44</v>
       </c>
@@ -5419,7 +7134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>130</v>
       </c>
@@ -5433,10 +7148,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>223</v>
       </c>
@@ -5444,7 +7159,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>47</v>
       </c>
@@ -5458,7 +7173,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>127</v>
       </c>
@@ -5472,7 +7187,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>53</v>
       </c>
@@ -5486,7 +7201,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
         <v>117</v>
       </c>
@@ -5500,7 +7215,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>48</v>
       </c>
@@ -5514,7 +7229,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>49</v>
       </c>
@@ -5528,7 +7243,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>50</v>
       </c>
@@ -5542,7 +7257,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>51</v>
       </c>
@@ -5556,7 +7271,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>52</v>
       </c>
@@ -5570,7 +7285,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
         <v>132</v>
       </c>
@@ -5584,13 +7299,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="20"/>
     </row>
-    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>224</v>
       </c>
@@ -5598,7 +7313,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
         <v>187</v>
       </c>
@@ -5612,7 +7327,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
         <v>188</v>
       </c>
@@ -5626,7 +7341,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
         <v>189</v>
       </c>
@@ -5640,7 +7355,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
         <v>190</v>
       </c>
@@ -5654,7 +7369,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
         <v>191</v>
       </c>
@@ -5668,7 +7383,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>192</v>
       </c>
@@ -5682,7 +7397,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
         <v>193</v>
       </c>
@@ -5696,7 +7411,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
         <v>194</v>
       </c>
@@ -5710,7 +7425,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
         <v>195</v>
       </c>
@@ -5724,7 +7439,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>196</v>
       </c>
@@ -5738,7 +7453,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>225</v>
       </c>
@@ -5746,7 +7461,7 @@
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>54</v>
       </c>
@@ -5760,7 +7475,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>128</v>
       </c>
@@ -5774,7 +7489,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>69</v>
       </c>
@@ -5788,7 +7503,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>118</v>
       </c>
@@ -5802,7 +7517,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
         <v>55</v>
       </c>
@@ -5816,7 +7531,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
         <v>56</v>
       </c>
@@ -5830,7 +7545,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>58</v>
       </c>
@@ -5844,7 +7559,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>59</v>
       </c>
@@ -5858,7 +7573,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>60</v>
       </c>
@@ -5872,7 +7587,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>61</v>
       </c>
@@ -5886,7 +7601,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>62</v>
       </c>
@@ -5900,7 +7615,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>64</v>
       </c>
@@ -5914,7 +7629,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>65</v>
       </c>
@@ -5928,7 +7643,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>67</v>
       </c>
@@ -5942,7 +7657,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>68</v>
       </c>
@@ -5956,7 +7671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>133</v>
       </c>
@@ -5970,10 +7685,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>226</v>
       </c>
@@ -5981,7 +7696,7 @@
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
         <v>71</v>
       </c>
@@ -5995,7 +7710,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>129</v>
       </c>
@@ -6009,7 +7724,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
         <v>87</v>
       </c>
@@ -6023,7 +7738,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>135</v>
       </c>
@@ -6037,7 +7752,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
         <v>119</v>
       </c>
@@ -6051,7 +7766,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>72</v>
       </c>
@@ -6065,7 +7780,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
         <v>73</v>
       </c>
@@ -6079,7 +7794,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>74</v>
       </c>
@@ -6093,7 +7808,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>75</v>
       </c>
@@ -6107,7 +7822,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>76</v>
       </c>
@@ -6121,7 +7836,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>77</v>
       </c>
@@ -6135,7 +7850,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>78</v>
       </c>
@@ -6149,7 +7864,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
         <v>79</v>
       </c>
@@ -6163,7 +7878,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
         <v>80</v>
       </c>
@@ -6177,7 +7892,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>82</v>
       </c>
@@ -6191,7 +7906,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
         <v>134</v>
       </c>
@@ -6205,7 +7920,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>84</v>
       </c>
@@ -6219,7 +7934,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
         <v>85</v>
       </c>
@@ -6233,7 +7948,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>86</v>
       </c>
@@ -6247,7 +7962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>227</v>
       </c>
@@ -6255,7 +7970,7 @@
       <c r="C115" s="3"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
         <v>152</v>
       </c>
@@ -6269,7 +7984,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="117" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>153</v>
       </c>
@@ -6283,7 +7998,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
         <v>169</v>
       </c>
@@ -6297,7 +8012,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>217</v>
       </c>
@@ -6311,7 +8026,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
         <v>154</v>
       </c>
@@ -6325,7 +8040,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
         <v>155</v>
       </c>
@@ -6339,7 +8054,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
         <v>156</v>
       </c>
@@ -6353,7 +8068,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
         <v>157</v>
       </c>
@@ -6367,7 +8082,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
         <v>158</v>
       </c>
@@ -6381,7 +8096,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
         <v>159</v>
       </c>
@@ -6395,7 +8110,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
         <v>160</v>
       </c>
@@ -6409,7 +8124,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
         <v>161</v>
       </c>
@@ -6423,7 +8138,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>162</v>
       </c>
@@ -6437,7 +8152,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
         <v>163</v>
       </c>
@@ -6451,7 +8166,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
         <v>164</v>
       </c>
@@ -6465,7 +8180,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
         <v>165</v>
       </c>
@@ -6479,7 +8194,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
         <v>166</v>
       </c>
@@ -6493,7 +8208,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
         <v>167</v>
       </c>
@@ -6507,7 +8222,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
         <v>168</v>
       </c>
@@ -6550,22 +8265,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF62ACA-EE29-4499-ACA4-9FBD07A19BB0}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36D9420-1A5B-471C-86ED-A276E7F0027B}">
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView topLeftCell="A95" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>
@@ -6573,7 +8288,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>99</v>
       </c>
@@ -6587,7 +8302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>100</v>
       </c>
@@ -6601,7 +8316,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -6615,10 +8330,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>147</v>
       </c>
@@ -6626,7 +8341,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -6640,7 +8355,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -6654,10 +8369,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -6665,7 +8380,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>98</v>
       </c>
@@ -6679,7 +8394,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>97</v>
       </c>
@@ -6693,7 +8408,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>101</v>
       </c>
@@ -6707,10 +8422,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>151</v>
       </c>
@@ -6718,7 +8433,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
@@ -6732,7 +8447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
@@ -6746,10 +8461,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>220</v>
       </c>
@@ -6757,7 +8472,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
@@ -6771,7 +8486,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>116</v>
       </c>
@@ -6786,7 +8501,7 @@
       </c>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>22</v>
       </c>
@@ -6800,7 +8515,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>221</v>
       </c>
@@ -6808,7 +8523,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>23</v>
       </c>
@@ -6822,7 +8537,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>125</v>
       </c>
@@ -6836,7 +8551,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>140</v>
       </c>
@@ -6850,7 +8565,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>115</v>
       </c>
@@ -6864,7 +8579,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>24</v>
       </c>
@@ -6878,7 +8593,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>25</v>
       </c>
@@ -6892,7 +8607,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>27</v>
       </c>
@@ -6906,7 +8621,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>29</v>
       </c>
@@ -6920,7 +8635,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>31</v>
       </c>
@@ -6934,7 +8649,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>33</v>
       </c>
@@ -6948,10 +8663,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>222</v>
       </c>
@@ -6959,7 +8674,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>36</v>
       </c>
@@ -6973,7 +8688,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>126</v>
       </c>
@@ -6987,7 +8702,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>46</v>
       </c>
@@ -7001,7 +8716,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>113</v>
       </c>
@@ -7015,7 +8730,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>124</v>
       </c>
@@ -7026,7 +8741,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>136</v>
       </c>
@@ -7040,7 +8755,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>138</v>
       </c>
@@ -7054,7 +8769,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>37</v>
       </c>
@@ -7068,7 +8783,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>38</v>
       </c>
@@ -7082,7 +8797,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>40</v>
       </c>
@@ -7096,7 +8811,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>42</v>
       </c>
@@ -7110,7 +8825,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>43</v>
       </c>
@@ -7124,7 +8839,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>44</v>
       </c>
@@ -7138,7 +8853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>130</v>
       </c>
@@ -7152,10 +8867,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>223</v>
       </c>
@@ -7163,7 +8878,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>47</v>
       </c>
@@ -7177,7 +8892,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>127</v>
       </c>
@@ -7191,7 +8906,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>53</v>
       </c>
@@ -7205,7 +8920,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
         <v>117</v>
       </c>
@@ -7219,7 +8934,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>48</v>
       </c>
@@ -7233,7 +8948,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>49</v>
       </c>
@@ -7247,7 +8962,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>50</v>
       </c>
@@ -7261,7 +8976,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>51</v>
       </c>
@@ -7275,7 +8990,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>52</v>
       </c>
@@ -7289,7 +9004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
         <v>132</v>
       </c>
@@ -7303,13 +9018,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="22"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="20"/>
     </row>
-    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>224</v>
       </c>
@@ -7317,7 +9032,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
         <v>187</v>
       </c>
@@ -7331,7 +9046,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
         <v>188</v>
       </c>
@@ -7345,7 +9060,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
         <v>189</v>
       </c>
@@ -7359,7 +9074,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
         <v>190</v>
       </c>
@@ -7373,7 +9088,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
         <v>191</v>
       </c>
@@ -7387,7 +9102,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>192</v>
       </c>
@@ -7401,7 +9116,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
         <v>193</v>
       </c>
@@ -7415,7 +9130,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
         <v>194</v>
       </c>
@@ -7429,7 +9144,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
         <v>195</v>
       </c>
@@ -7443,7 +9158,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>196</v>
       </c>
@@ -7457,7 +9172,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>225</v>
       </c>
@@ -7465,7 +9180,7 @@
       <c r="C76" s="3"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>54</v>
       </c>
@@ -7479,7 +9194,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>128</v>
       </c>
@@ -7493,7 +9208,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>69</v>
       </c>
@@ -7507,7 +9222,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>118</v>
       </c>
@@ -7521,7 +9236,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
         <v>55</v>
       </c>
@@ -7535,7 +9250,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
         <v>56</v>
       </c>
@@ -7549,7 +9264,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>58</v>
       </c>
@@ -7563,7 +9278,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>59</v>
       </c>
@@ -7577,7 +9292,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>60</v>
       </c>
@@ -7591,7 +9306,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>61</v>
       </c>
@@ -7605,7 +9320,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>62</v>
       </c>
@@ -7619,7 +9334,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>64</v>
       </c>
@@ -7633,7 +9348,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>65</v>
       </c>
@@ -7647,7 +9362,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>67</v>
       </c>
@@ -7661,7 +9376,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>68</v>
       </c>
@@ -7675,7 +9390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>133</v>
       </c>
@@ -7689,10 +9404,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>226</v>
       </c>
@@ -7700,7 +9415,7 @@
       <c r="C94" s="3"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
         <v>71</v>
       </c>
@@ -7714,7 +9429,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>129</v>
       </c>
@@ -7728,7 +9443,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
         <v>87</v>
       </c>
@@ -7742,7 +9457,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>135</v>
       </c>
@@ -7756,7 +9471,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
         <v>119</v>
       </c>
@@ -7770,7 +9485,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>72</v>
       </c>
@@ -7784,7 +9499,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
         <v>73</v>
       </c>
@@ -7798,7 +9513,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>74</v>
       </c>
@@ -7812,7 +9527,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
         <v>75</v>
       </c>
@@ -7826,7 +9541,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
         <v>76</v>
       </c>
@@ -7840,7 +9555,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>77</v>
       </c>
@@ -7854,7 +9569,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>78</v>
       </c>
@@ -7868,7 +9583,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
         <v>79</v>
       </c>
@@ -7882,7 +9597,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
         <v>80</v>
       </c>
@@ -7896,7 +9611,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>82</v>
       </c>
@@ -7910,7 +9625,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
         <v>134</v>
       </c>
@@ -7924,7 +9639,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>84</v>
       </c>
@@ -7938,7 +9653,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
         <v>85</v>
       </c>
@@ -7952,7 +9667,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>86</v>
       </c>
@@ -7966,7 +9681,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>227</v>
       </c>
@@ -7974,7 +9689,7 @@
       <c r="C115" s="3"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
         <v>152</v>
       </c>
@@ -7988,7 +9703,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="117" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>153</v>
       </c>
@@ -8002,7 +9717,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
         <v>169</v>
       </c>
@@ -8016,7 +9731,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>217</v>
       </c>
@@ -8030,7 +9745,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
         <v>154</v>
       </c>
@@ -8044,7 +9759,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
         <v>155</v>
       </c>
@@ -8058,7 +9773,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
         <v>156</v>
       </c>
@@ -8072,7 +9787,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
         <v>157</v>
       </c>
@@ -8086,7 +9801,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
         <v>158</v>
       </c>
@@ -8100,7 +9815,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
         <v>159</v>
       </c>
@@ -8114,7 +9829,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
         <v>160</v>
       </c>
@@ -8128,7 +9843,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
         <v>161</v>
       </c>
@@ -8142,7 +9857,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>162</v>
       </c>
@@ -8156,7 +9871,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
         <v>163</v>
       </c>
@@ -8170,7 +9885,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
         <v>164</v>
       </c>
@@ -8184,7 +9899,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
         <v>165</v>
       </c>
@@ -8198,7 +9913,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
         <v>166</v>
       </c>
@@ -8212,7 +9927,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
         <v>167</v>
       </c>
@@ -8226,1726 +9941,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B134" s="1">
-        <v>1</v>
-      </c>
-      <c r="C134" t="s">
-        <v>0</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B26:B27" xr:uid="{BC87F18E-AC1C-42F2-BB7D-3ACA0463842D}">
-      <formula1>"False, True"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B95:B98 B53:B55 B37:B38 B116:B119 B65:B67" xr:uid="{D5E2BD5A-2B48-4AF1-A521-5C2B2368B926}">
-      <formula1>"True, False,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122 B25 B101" xr:uid="{84A2AD9B-AA4B-4479-88C8-6E4180A5A2E9}">
-      <formula1>"False, True,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{48E0CB6D-9B4B-40F6-BEFD-70D7DB0533D5}">
-      <formula1>"go, rh"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21 B28 B40" xr:uid="{2B2C56A8-A2CF-42A6-8437-2636163CA6AC}">
-      <formula1>"AC, DC"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{54A76F11-C492-4E58-9875-6513F4688FE7}">
-      <formula1>"True, False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56 B80 B99 B120 B68" xr:uid="{E3D9465C-D412-44B2-B8BF-338A652A1284}">
-      <formula1>"AC,DC,"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36D9420-1A5B-471C-86ED-A276E7F0027B}">
-  <dimension ref="A1:E134"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="1">
-        <v>365</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="8">
-        <v>38367</v>
-      </c>
-      <c r="C11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="7">
-        <v>100000</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1.355</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="7">
-        <v>36250</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B42" s="1">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="1">
-        <v>25</v>
-      </c>
-      <c r="C48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="1">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="7">
-        <v>30000</v>
-      </c>
-      <c r="C55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="1">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C57" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="1">
-        <v>6.4999999999999997E-4</v>
-      </c>
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="1">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="18">
-        <v>1</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B67" s="23">
-        <v>30000</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B69" s="18">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="B70" s="18">
-        <v>0</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B71" s="18">
-        <v>6.4999999999999997E-4</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="B72" s="18">
-        <v>10</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B73" s="18">
-        <v>1</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="B74" s="18">
-        <v>1</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>176</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>176</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="7">
-        <v>160000</v>
-      </c>
-      <c r="C79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C81" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="1">
-        <v>0</v>
-      </c>
-      <c r="C82" t="s">
-        <v>57</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B83" s="1">
-        <v>0</v>
-      </c>
-      <c r="C83" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B84" s="1">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B85" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B86" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C86" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B87" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C87" t="s">
-        <v>63</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B88" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C88" t="s">
-        <v>63</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B89" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C89" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B90" s="1">
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>63</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B91" s="1">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B92" s="1">
-        <v>1</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" t="s">
-        <v>176</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" t="s">
-        <v>176</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" s="7">
-        <v>30000</v>
-      </c>
-      <c r="C97" t="s">
-        <v>70</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B98" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" t="s">
-        <v>219</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C100" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B101" s="18">
-        <v>0</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B102" s="1">
-        <v>10</v>
-      </c>
-      <c r="C102" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B103" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C103" t="s">
-        <v>30</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B104" s="1">
-        <v>0</v>
-      </c>
-      <c r="C104" t="s">
-        <v>57</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B105" s="1">
-        <v>0</v>
-      </c>
-      <c r="C105" t="s">
-        <v>30</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B106" s="1">
-        <v>10</v>
-      </c>
-      <c r="C106" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B107" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B108" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C108" t="s">
-        <v>35</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B109" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C109" t="s">
-        <v>35</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B110" s="1">
-        <v>1</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B111" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C111" t="s">
-        <v>0</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B112" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B113" s="1">
-        <v>1</v>
-      </c>
-      <c r="C113" t="s">
-        <v>0</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" t="s">
-        <v>176</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" t="s">
-        <v>176</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B118" s="7">
-        <v>30000</v>
-      </c>
-      <c r="C118" t="s">
-        <v>70</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B119" t="s">
-        <v>88</v>
-      </c>
-      <c r="C119" t="s">
-        <v>219</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D120" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C121" t="s">
-        <v>0</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B122" s="18">
-        <v>0</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D122" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B123" s="1">
-        <v>10</v>
-      </c>
-      <c r="C123" t="s">
-        <v>0</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B124" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C124" t="s">
-        <v>30</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B125" s="1">
-        <v>0</v>
-      </c>
-      <c r="C125" t="s">
-        <v>57</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B126" s="1">
-        <v>0</v>
-      </c>
-      <c r="C126" t="s">
-        <v>30</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B127" s="1">
-        <v>10</v>
-      </c>
-      <c r="C127" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B128" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B129" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C129" t="s">
-        <v>35</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B130" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C130" t="s">
-        <v>35</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B131" s="1">
-        <v>1</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B132" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C132" t="s">
-        <v>0</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B133" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C133" t="s">
-        <v>0</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
         <v>168</v>
       </c>

--- a/input/_excel/example.xlsx
+++ b/input/_excel/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga35vuk\Desktop\mg_ev_opti\input\_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2F1CD8-5FD7-4C55-8BD4-7CA602E5A151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F51271-37BB-4D93-901C-EE7D41CB4E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{77293274-C4CB-421E-9B2C-ED6957626F24}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="0_mg_go" sheetId="1" r:id="rId2"/>
     <sheet name="1_mgev_go" sheetId="4" r:id="rId3"/>
     <sheet name="2_mg_rh" sheetId="5" r:id="rId4"/>
-    <sheet name="2_mgev_rh" sheetId="6" r:id="rId5"/>
+    <sheet name="3_mgev_rh" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/input/_excel/example.xlsx
+++ b/input/_excel/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga35vuk\Desktop\mg_ev_opti\input\_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F51271-37BB-4D93-901C-EE7D41CB4E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE623A83-ED8D-4930-BB6E-0636D9F92DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{77293274-C4CB-421E-9B2C-ED6957626F24}"/>
   </bookViews>

--- a/input/_excel/example.xlsx
+++ b/input/_excel/example.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanneshenglein/Desktop/Masterarbeit/mg_ev_opti/input/_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FEF15C-3E5B-DC43-905D-6A096D608DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9A0E30-3F45-FB48-9676-429C10AAE3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1780" yWindow="-20620" windowWidth="29700" windowHeight="17880" activeTab="1" xr2:uid="{73BD2749-5E13-4C00-9545-BF8A7C205FF5}"/>
+    <workbookView xWindow="-1780" yWindow="-20620" windowWidth="29700" windowHeight="17880" activeTab="2" xr2:uid="{73BD2749-5E13-4C00-9545-BF8A7C205FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="global_settings" sheetId="2" r:id="rId1"/>
-    <sheet name="gen_pv_ess_bev_go" sheetId="18" r:id="rId2"/>
-    <sheet name="gen_go" sheetId="1" r:id="rId3"/>
-    <sheet name="gen_pv_ess_go" sheetId="16" r:id="rId4"/>
-    <sheet name="gen_pv_ess_rh" sheetId="22" r:id="rId5"/>
-    <sheet name="gen_pv_ess_bev_rh" sheetId="21" r:id="rId6"/>
+    <sheet name="gen_go" sheetId="1" r:id="rId2"/>
+    <sheet name="gen_pv_ess_go" sheetId="16" r:id="rId3"/>
+    <sheet name="gen_pv_ess_rh" sheetId="22" r:id="rId4"/>
+    <sheet name="gen_pv_ess_bev_rh" sheetId="21" r:id="rId5"/>
+    <sheet name="gen_pv_ess_bev_go" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1390,1729 +1390,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF62ACA-EE29-4499-ACA4-9FBD07A19BB0}">
-  <dimension ref="A1:E134"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="1">
-        <v>365</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="8">
-        <v>38367</v>
-      </c>
-      <c r="C11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="7">
-        <v>100000</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1.355</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="7">
-        <v>36250</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B42" s="1">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="1">
-        <v>25</v>
-      </c>
-      <c r="C48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="1">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="7">
-        <v>30000</v>
-      </c>
-      <c r="C55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="1">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C57" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="1">
-        <v>6.4999999999999997E-4</v>
-      </c>
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="1">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="18">
-        <v>1</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B67" s="23">
-        <v>30000</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B69" s="18">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="B70" s="18">
-        <v>0</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B71" s="18">
-        <v>6.4999999999999997E-4</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="B72" s="18">
-        <v>10</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B73" s="18">
-        <v>1</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="B74" s="18">
-        <v>1</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>176</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>176</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="7">
-        <v>160000</v>
-      </c>
-      <c r="C79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C81" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="1">
-        <v>0</v>
-      </c>
-      <c r="C82" t="s">
-        <v>57</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B83" s="1">
-        <v>0</v>
-      </c>
-      <c r="C83" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B84" s="1">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B85" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B86" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C86" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B87" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C87" t="s">
-        <v>63</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B88" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C88" t="s">
-        <v>63</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B89" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C89" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B90" s="1">
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>63</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B91" s="1">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B92" s="1">
-        <v>1</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" t="s">
-        <v>176</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" t="s">
-        <v>176</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" s="7">
-        <v>30000</v>
-      </c>
-      <c r="C97" t="s">
-        <v>70</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B98" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" t="s">
-        <v>219</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C100" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B101" s="18">
-        <v>0</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B102" s="1">
-        <v>10</v>
-      </c>
-      <c r="C102" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B103" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C103" t="s">
-        <v>30</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B104" s="1">
-        <v>0</v>
-      </c>
-      <c r="C104" t="s">
-        <v>57</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B105" s="1">
-        <v>0</v>
-      </c>
-      <c r="C105" t="s">
-        <v>30</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B106" s="1">
-        <v>10</v>
-      </c>
-      <c r="C106" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B107" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B108" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C108" t="s">
-        <v>35</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B109" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C109" t="s">
-        <v>35</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B110" s="1">
-        <v>1</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B111" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C111" t="s">
-        <v>0</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B112" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B113" s="1">
-        <v>1</v>
-      </c>
-      <c r="C113" t="s">
-        <v>0</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" t="s">
-        <v>176</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" t="s">
-        <v>176</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B118" s="7">
-        <v>30000</v>
-      </c>
-      <c r="C118" t="s">
-        <v>70</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B119" t="s">
-        <v>88</v>
-      </c>
-      <c r="C119" t="s">
-        <v>219</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D120" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C121" t="s">
-        <v>0</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B122" s="18">
-        <v>0</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D122" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B123" s="1">
-        <v>10</v>
-      </c>
-      <c r="C123" t="s">
-        <v>0</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B124" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C124" t="s">
-        <v>30</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B125" s="1">
-        <v>0</v>
-      </c>
-      <c r="C125" t="s">
-        <v>57</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B126" s="1">
-        <v>0</v>
-      </c>
-      <c r="C126" t="s">
-        <v>30</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B127" s="1">
-        <v>10</v>
-      </c>
-      <c r="C127" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B128" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B129" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C129" t="s">
-        <v>35</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B130" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C130" t="s">
-        <v>35</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B131" s="1">
-        <v>1</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B132" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C132" t="s">
-        <v>0</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B133" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="C133" t="s">
-        <v>0</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B134" s="1">
-        <v>1</v>
-      </c>
-      <c r="C134" t="s">
-        <v>0</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B26:B27" xr:uid="{BC87F18E-AC1C-42F2-BB7D-3ACA0463842D}">
-      <formula1>"False, True"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B95:B98 B53:B55 B37:B38 B116:B119 B65:B67" xr:uid="{D5E2BD5A-2B48-4AF1-A521-5C2B2368B926}">
-      <formula1>"True, False,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122 B25 B101" xr:uid="{84A2AD9B-AA4B-4479-88C8-6E4180A5A2E9}">
-      <formula1>"False, True,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{48E0CB6D-9B4B-40F6-BEFD-70D7DB0533D5}">
-      <formula1>"go, rh"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21 B28 B40" xr:uid="{2B2C56A8-A2CF-42A6-8437-2636163CA6AC}">
-      <formula1>"AC, DC"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{54A76F11-C492-4E58-9875-6513F4688FE7}">
-      <formula1>"True, False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56 B80 B99 B120 B68" xr:uid="{E3D9465C-D412-44B2-B8BF-338A652A1284}">
-      <formula1>"AC,DC,"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD09034-A1CD-4ECF-9F82-6F45633B0EDC}">
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A120" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -4827,11 +3108,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3CB5BE-271B-4B49-8C77-E70933C410C3}">
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
@@ -6546,7 +4827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5205A00-846D-4911-B4A8-26F7517D2539}">
   <dimension ref="A1:E134"/>
   <sheetViews>
@@ -8265,7 +6546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36D9420-1A5B-471C-86ED-A276E7F0027B}">
   <dimension ref="A1:E134"/>
   <sheetViews>
@@ -9982,4 +8263,1723 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF62ACA-EE29-4499-ACA4-9FBD07A19BB0}">
+  <dimension ref="A1:E134"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1">
+        <v>365</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="8">
+        <v>38367</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="7">
+        <v>100000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.355</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="7">
+        <v>36250</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="1">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="1">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7">
+        <v>30000</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="1">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="1">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="18">
+        <v>1</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="22"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B67" s="23">
+        <v>30000</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" s="18">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="18">
+        <v>0</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="18">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="18">
+        <v>10</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" s="18">
+        <v>1</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" s="18">
+        <v>1</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="7">
+        <v>160000</v>
+      </c>
+      <c r="C79" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="1">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>176</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>176</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="7">
+        <v>30000</v>
+      </c>
+      <c r="C97" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B101" s="18">
+        <v>0</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B102" s="1">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="1">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>176</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B118" s="7">
+        <v>30000</v>
+      </c>
+      <c r="C118" t="s">
+        <v>70</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C119" t="s">
+        <v>219</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B122" s="18">
+        <v>0</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123" s="1">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>57</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>30</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B127" s="1">
+        <v>10</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B129" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C129" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B130" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C130" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C132" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B133" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C133" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B26:B27" xr:uid="{BC87F18E-AC1C-42F2-BB7D-3ACA0463842D}">
+      <formula1>"False, True"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B95:B98 B53:B55 B37:B38 B116:B119 B65:B67" xr:uid="{D5E2BD5A-2B48-4AF1-A521-5C2B2368B926}">
+      <formula1>"True, False,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122 B25 B101" xr:uid="{84A2AD9B-AA4B-4479-88C8-6E4180A5A2E9}">
+      <formula1>"False, True,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{48E0CB6D-9B4B-40F6-BEFD-70D7DB0533D5}">
+      <formula1>"go, rh"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21 B28 B40" xr:uid="{2B2C56A8-A2CF-42A6-8437-2636163CA6AC}">
+      <formula1>"AC, DC"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41" xr:uid="{54A76F11-C492-4E58-9875-6513F4688FE7}">
+      <formula1>"True, False"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56 B80 B99 B120 B68" xr:uid="{E3D9465C-D412-44B2-B8BF-338A652A1284}">
+      <formula1>"AC,DC,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/input/_excel/example.xlsx
+++ b/input/_excel/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga35vuk\Desktop\mg_ev_opti\input\_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE623A83-ED8D-4930-BB6E-0636D9F92DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F951A2-9825-4856-A76D-D2C9A71F65B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{77293274-C4CB-421E-9B2C-ED6957626F24}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{77293274-C4CB-421E-9B2C-ED6957626F24}"/>
   </bookViews>
   <sheets>
     <sheet name="global_settings" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="241">
   <si>
     <t>General Simulation</t>
   </si>
@@ -733,13 +733,43 @@
   </si>
   <si>
     <t>go</t>
+  </si>
+  <si>
+    <t>core_opt</t>
+  </si>
+  <si>
+    <t>core_cs</t>
+  </si>
+  <si>
+    <t>core_sce</t>
+  </si>
+  <si>
+    <t>core_eff</t>
+  </si>
+  <si>
+    <t>unitless conversion efficiency of both (ac_dc and dc_ac) bus transformer components</t>
+  </si>
+  <si>
+    <t>core_sme</t>
+  </si>
+  <si>
+    <t>core_soe</t>
+  </si>
+  <si>
+    <t>core_ls</t>
+  </si>
+  <si>
+    <t>core_cdc</t>
+  </si>
+  <si>
+    <t>nominal component size, only used if core_opt is "False"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,6 +852,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -861,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -917,6 +959,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6656,10 +6708,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A23578-0AE8-47E7-9F24-20E3F0FA7C34}">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -6823,711 +6875,696 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.95</v>
+      <c r="A16" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.95</v>
+        <v>232</v>
+      </c>
+      <c r="B17" s="16">
+        <v>10000000</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>31</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="A18" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="25">
         <v>0.08</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
+    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="5">
+        <f>0.03*B18</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>238</v>
+      </c>
+      <c r="B21" s="5">
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="14"/>
+      <c r="A22" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>234</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.95</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="16">
-        <v>100000</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="A28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>223</v>
-      </c>
+      <c r="A29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="5">
-        <f>0.03*B31</f>
-        <v>8.3999999999999991E-2</v>
+        <v>45</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="5">
-        <v>20</v>
+      <c r="A34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="16">
+        <v>100000</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
+      <c r="A35" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>34</v>
+        <v>58</v>
+      </c>
+      <c r="B38" s="5">
+        <f>0.03*B37</f>
+        <v>8.3999999999999991E-2</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="16">
-        <v>750000</v>
+        <v>62</v>
+      </c>
+      <c r="B40" s="5">
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="5">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>77</v>
-      </c>
+      <c r="A41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>79</v>
+        <v>35</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.503</v>
+        <v>69</v>
+      </c>
+      <c r="B46" s="16">
+        <v>750000</v>
       </c>
       <c r="C46" t="s">
-        <v>226</v>
+        <v>50</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="5">
-        <f>0.03*B46</f>
-        <v>1.5089999999999999E-2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>227</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>59</v>
+      <c r="A47" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="5">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
-        <v>225</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>61</v>
+        <v>73</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B49" s="5">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>63</v>
+        <v>76</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B50" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="5">
-        <v>0.95</v>
+        <v>80</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.503</v>
+      </c>
+      <c r="C52" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="5">
+        <f>0.03*B52</f>
+        <v>1.5089999999999999E-2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>34</v>
+        <v>85</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>46</v>
+        <v>86</v>
+      </c>
+      <c r="B55" s="5">
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="16">
-        <v>50000</v>
+        <v>87</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" s="5">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="C58" t="s">
-        <v>223</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="5">
-        <f>0.08*B58</f>
-        <v>2.0880000000000003E-2</v>
-      </c>
-      <c r="C59" t="s">
-        <v>224</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="A57" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="5">
-        <v>6.4999999999999997E-4</v>
+        <v>92</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B61" s="5">
-        <v>10</v>
+        <v>93</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" s="5">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="B62" s="16">
+        <v>50000</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B63" s="11">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
-    </row>
-    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="2"/>
+      <c r="A64" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="C64" t="s">
+        <v>223</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="5">
+        <f>0.08*B64</f>
+        <v>2.0880000000000003E-2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>40</v>
+      <c r="A66" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="5">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>40</v>
+      <c r="A67" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="5">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B68" s="19">
-        <v>30000</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>40</v>
+      <c r="A68" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>38</v>
+        <v>103</v>
+      </c>
+      <c r="B69" s="11">
+        <v>1</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B70" s="11">
-        <v>15</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" s="11">
-        <v>0</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="A70" s="18"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B72" s="11">
-        <v>3.0000000000000001E-5</v>
+        <v>105</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>40</v>
@@ -7535,13 +7572,13 @@
     </row>
     <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B73" s="11">
-        <v>10</v>
+        <v>106</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>40</v>
@@ -7549,13 +7586,13 @@
     </row>
     <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B74" s="11">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="B74" s="19">
+        <v>30000</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>40</v>
@@ -7563,842 +7600,926 @@
     </row>
     <row r="75" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B75" s="11">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+    <row r="76" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="11">
+        <v>15</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="11">
+        <v>0</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="11">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="11">
+        <v>10</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" s="11">
+        <v>1</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="11">
+        <v>1</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C78" t="s">
-        <v>35</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" t="s">
-        <v>35</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B80" s="16">
-        <v>1100000</v>
-      </c>
-      <c r="C80" t="s">
-        <v>119</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B82" s="5">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="C82" t="s">
-        <v>225</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B83" s="11">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B84" s="5">
-        <f>0.03*B82</f>
-        <v>4.1700000000000001E-3</v>
+        <v>116</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C84" t="s">
-        <v>228</v>
+        <v>35</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B85" s="5">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C85" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B86" s="5">
-        <v>10</v>
+        <v>118</v>
+      </c>
+      <c r="B86" s="16">
+        <v>1100000</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B87" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="C87" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B88" s="5">
-        <v>0.9</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="C88" t="s">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B89" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="C89" t="s">
-        <v>131</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>132</v>
+      <c r="A89" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B89" s="11">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B90" s="5">
-        <v>0.8</v>
+        <f>0.03*B88</f>
+        <v>4.1700000000000001E-3</v>
       </c>
       <c r="C90" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B91" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B92" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B93" s="5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B94" s="5">
-        <v>1</v>
-      </c>
-      <c r="C94" s="7" t="s">
+        <v>0.9</v>
+      </c>
+      <c r="C94" t="s">
         <v>3</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B95" s="5"/>
-    </row>
-    <row r="96" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="2"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>131</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>34</v>
+        <v>135</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0.5</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>46</v>
+        <v>137</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B99" s="16">
-        <v>30000</v>
+        <v>139</v>
+      </c>
+      <c r="B99" s="5">
+        <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B100" t="s">
-        <v>147</v>
-      </c>
-      <c r="C100" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="B100" s="5">
+        <v>1</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C102" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>153</v>
-      </c>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B103" s="11">
-        <v>0</v>
-      </c>
-      <c r="C103" s="14" t="s">
+      <c r="A103" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" t="s">
         <v>35</v>
       </c>
-      <c r="D103" s="13" t="s">
-        <v>155</v>
+      <c r="D103" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B104" s="5">
-        <v>5</v>
+        <v>143</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C104" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B105" s="5">
-        <v>0.25</v>
+        <v>144</v>
+      </c>
+      <c r="B105" s="16">
+        <v>30000</v>
       </c>
       <c r="C105" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B106" s="5">
-        <f>0.03*B105</f>
-        <v>7.4999999999999997E-3</v>
+        <v>146</v>
+      </c>
+      <c r="B106" t="s">
+        <v>147</v>
       </c>
       <c r="C106" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B107" s="5">
-        <v>0</v>
-      </c>
-      <c r="C107" t="s">
-        <v>225</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>61</v>
+      <c r="A107" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B108" s="5">
-        <v>10</v>
+        <v>151</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B109" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>136</v>
+      <c r="A109" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" s="11">
+        <v>0</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B110" s="5">
-        <v>11000</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B111" s="5">
-        <v>11000</v>
+        <v>0.25</v>
       </c>
       <c r="C111" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>166</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B112" s="5">
-        <v>1</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>3</v>
+        <f>0.03*B111</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>228</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B113" s="5">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B114" s="5">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B115" s="5">
-        <v>1</v>
-      </c>
-      <c r="C115" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C115" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="2"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B116" s="5">
+        <v>11000</v>
+      </c>
+      <c r="C116" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B117" s="5">
+        <v>11000</v>
+      </c>
+      <c r="C117" t="s">
+        <v>50</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C118" t="s">
-        <v>35</v>
+        <v>167</v>
+      </c>
+      <c r="B118" s="5">
+        <v>1</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>46</v>
+        <v>169</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0.95</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B120" s="16">
-        <v>30000</v>
+        <v>171</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0.95</v>
       </c>
       <c r="C120" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B121" t="s">
-        <v>147</v>
+        <v>173</v>
+      </c>
+      <c r="B121" s="5">
+        <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C123" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>183</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="2"/>
     </row>
     <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B124" s="11">
-        <v>0</v>
-      </c>
-      <c r="C124" s="14" t="s">
+      <c r="A124" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C124" t="s">
         <v>35</v>
       </c>
-      <c r="D124" s="13" t="s">
-        <v>155</v>
+      <c r="D124" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B125" s="5">
-        <v>10</v>
+        <v>176</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C125" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B126" s="5">
-        <v>0.5</v>
+        <v>177</v>
+      </c>
+      <c r="B126" s="16">
+        <v>30000</v>
       </c>
       <c r="C126" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B127" s="5">
-        <f>0.03*B126</f>
-        <v>1.4999999999999999E-2</v>
+        <v>179</v>
+      </c>
+      <c r="B127" t="s">
+        <v>147</v>
       </c>
       <c r="C127" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B128" s="5">
-        <v>0</v>
-      </c>
-      <c r="C128" t="s">
-        <v>225</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>61</v>
+      <c r="A128" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B129" s="5">
-        <v>10</v>
+        <v>181</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B130" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>136</v>
+      <c r="A130" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B130" s="11">
+        <v>0</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B131" s="5">
-        <v>3600</v>
+        <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B132" s="5">
-        <v>3600</v>
+        <v>0.5</v>
       </c>
       <c r="C132" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>194</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B133" s="5">
-        <v>1</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>3</v>
+        <f>0.03*B132</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>228</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B134" s="5">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B135" s="5">
-        <v>0.95</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
     </row>
     <row r="136" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B136" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B137" s="5">
+        <v>3600</v>
+      </c>
+      <c r="C137" t="s">
+        <v>50</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B138" s="5">
+        <v>3600</v>
+      </c>
+      <c r="C138" t="s">
+        <v>50</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B139" s="5">
+        <v>1</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B140" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B141" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B136" s="5">
+      <c r="B142" s="5">
         <v>1</v>
       </c>
-      <c r="C136" t="s">
-        <v>3</v>
-      </c>
-      <c r="D136" s="6" t="s">
+      <c r="C142" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="6" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100" xr:uid="{12AE0ECF-FF2E-4B4C-A168-7102D5C325A1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B106" xr:uid="{12AE0ECF-FF2E-4B4C-A168-7102D5C325A1}">
       <formula1>"uc,tc,cc,v2v,v2g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57 B81 B101 B122 B69" xr:uid="{468A5423-0B4D-48A4-B886-EA9D807709C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63 B87 B107 B128 B75" xr:uid="{468A5423-0B4D-48A4-B886-EA9D807709C1}">
       <formula1>"AC,DC,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42" xr:uid="{C44B1A35-E19F-46FF-B711-4C0DB641BAF7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48" xr:uid="{C44B1A35-E19F-46FF-B711-4C0DB641BAF7}">
       <formula1>"True, False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22 B29 B41" xr:uid="{F3A79F41-C828-42FD-AFDA-9AF9E8D3D7C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 B35 B47" xr:uid="{F3A79F41-C828-42FD-AFDA-9AF9E8D3D7C3}">
       <formula1>"AC, DC"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{9BC52C00-7EC3-4E93-872A-4F4CDEC8A952}">
       <formula1>"go, rh"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124 B26 B103" xr:uid="{5147E92F-FA9F-4B5C-8DD4-01869E92E7CC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B130 B32 B109" xr:uid="{5147E92F-FA9F-4B5C-8DD4-01869E92E7CC}">
       <formula1>"False, True,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:B55 B66:B67 B78:B79 B38:B39 B121 B97:B98 B118:B119" xr:uid="{2B4218CC-58F4-421F-8760-FD9A030FA149}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60:B61 B72:B73 B84:B85 B44:B45 B127 B103:B104 B124:B125" xr:uid="{2B4218CC-58F4-421F-8760-FD9A030FA149}">
       <formula1>"True, False,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21 B27:B28" xr:uid="{1947198E-9E60-4D99-B51D-72329A85BDC5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B33:B34 B16" xr:uid="{1947198E-9E60-4D99-B51D-72329A85BDC5}">
       <formula1>"False, True"</formula1>
     </dataValidation>
   </dataValidations>

--- a/input/_excel/example.xlsx
+++ b/input/_excel/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga35vuk\Desktop\mg_ev_opti\input\_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanneshenglein/Desktop/Masterarbeit/mg_ev_opti/input/_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE623A83-ED8D-4930-BB6E-0636D9F92DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C92052-E19D-174D-AA70-97E95EC2F15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{77293274-C4CB-421E-9B2C-ED6957626F24}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{77293274-C4CB-421E-9B2C-ED6957626F24}"/>
   </bookViews>
   <sheets>
     <sheet name="global_settings" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -920,7 +919,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -936,7 +935,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1224,7 +1223,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1235,16 +1234,16 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>199</v>
       </c>
@@ -1252,7 +1251,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>200</v>
       </c>
@@ -1266,12 +1265,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
+      <c r="B3" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>205</v>
@@ -1280,7 +1279,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>207</v>
       </c>
@@ -1294,11 +1293,11 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C5" t="s">
@@ -1308,7 +1307,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>211</v>
       </c>
@@ -1322,7 +1321,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>213</v>
       </c>
@@ -1336,7 +1335,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>215</v>
       </c>
@@ -1350,7 +1349,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>217</v>
       </c>
@@ -1364,7 +1363,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>219</v>
       </c>
@@ -1379,15 +1378,21 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B7" xr:uid="{355195E8-566E-4276-8D17-AC00F41BD2E7}">
-      <formula1>"True, False,"</formula1>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{355195E8-566E-4276-8D17-AC00F41BD2E7}">
+      <formula1>"'True, 'False,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B9" xr:uid="{85BD93D5-7EDF-41E3-948F-8AE39B68F297}">
-      <formula1>"False, True,"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{85BD93D5-7EDF-41E3-948F-8AE39B68F297}">
+      <formula1>"'False, 'True,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{55FAA05B-C209-4359-AA8F-DB2467E93CFC}">
       <formula1>"cbc, gplk, gurobi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B4 B7 B6" xr:uid="{DE16DFA4-7DA9-1E4E-A7FF-6D0521157E07}">
+      <formula1>"'True, 'False,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{8893C428-EEB5-F947-96EC-2F1318DF769D}">
+      <formula1>"'False, 'True,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1403,14 +1408,14 @@
       <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="8" customWidth="1"/>
+    <col min="1" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1423,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1432,7 +1437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1446,7 +1451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1460,10 +1465,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1471,7 +1476,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1485,7 +1490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1499,10 +1504,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1510,7 +1515,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1524,7 +1529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1538,7 +1543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1552,10 +1557,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1563,7 +1568,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1577,7 +1582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -1591,7 +1596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>222</v>
       </c>
@@ -1605,10 +1610,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1616,7 +1621,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -1630,7 +1635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>37</v>
       </c>
@@ -1645,7 +1650,7 @@
       </c>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
@@ -1659,7 +1664,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1667,7 +1672,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -1681,7 +1686,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
@@ -1695,7 +1700,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>49</v>
       </c>
@@ -1709,7 +1714,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>52</v>
       </c>
@@ -1723,7 +1728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
@@ -1737,7 +1742,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
@@ -1748,7 +1753,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>58</v>
       </c>
@@ -1763,7 +1768,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>60</v>
       </c>
@@ -1777,7 +1782,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
@@ -1791,7 +1796,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
@@ -1805,10 +1810,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -1816,7 +1821,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>67</v>
       </c>
@@ -1830,7 +1835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>68</v>
       </c>
@@ -1844,7 +1849,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>69</v>
       </c>
@@ -1858,7 +1863,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>71</v>
       </c>
@@ -1872,7 +1877,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>73</v>
       </c>
@@ -1883,7 +1888,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>75</v>
       </c>
@@ -1897,7 +1902,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>78</v>
       </c>
@@ -1911,7 +1916,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
@@ -1925,7 +1930,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>83</v>
       </c>
@@ -1939,7 +1944,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>84</v>
       </c>
@@ -1954,7 +1959,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>85</v>
       </c>
@@ -1968,7 +1973,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>86</v>
       </c>
@@ -1982,7 +1987,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>87</v>
       </c>
@@ -1996,7 +2001,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>89</v>
       </c>
@@ -2010,10 +2015,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
@@ -2021,7 +2026,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>92</v>
       </c>
@@ -2035,7 +2040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>93</v>
       </c>
@@ -2049,7 +2054,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>94</v>
       </c>
@@ -2063,7 +2068,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>96</v>
       </c>
@@ -2077,7 +2082,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>97</v>
       </c>
@@ -2091,7 +2096,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>98</v>
       </c>
@@ -2106,7 +2111,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>99</v>
       </c>
@@ -2120,7 +2125,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>100</v>
       </c>
@@ -2134,7 +2139,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>102</v>
       </c>
@@ -2148,7 +2153,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>103</v>
       </c>
@@ -2162,13 +2167,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
     </row>
-    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>104</v>
       </c>
@@ -2176,7 +2181,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>105</v>
       </c>
@@ -2190,7 +2195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>106</v>
       </c>
@@ -2204,7 +2209,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>107</v>
       </c>
@@ -2218,7 +2223,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>108</v>
       </c>
@@ -2232,7 +2237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>109</v>
       </c>
@@ -2246,7 +2251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>110</v>
       </c>
@@ -2260,7 +2265,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>111</v>
       </c>
@@ -2274,7 +2279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>112</v>
       </c>
@@ -2288,7 +2293,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>113</v>
       </c>
@@ -2302,7 +2307,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>114</v>
       </c>
@@ -2316,7 +2321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>115</v>
       </c>
@@ -2324,7 +2329,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>116</v>
       </c>
@@ -2338,7 +2343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>117</v>
       </c>
@@ -2352,7 +2357,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>118</v>
       </c>
@@ -2366,7 +2371,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>121</v>
       </c>
@@ -2380,7 +2385,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>122</v>
       </c>
@@ -2394,7 +2399,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
         <v>229</v>
       </c>
@@ -2408,7 +2413,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>123</v>
       </c>
@@ -2423,7 +2428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>124</v>
       </c>
@@ -2437,7 +2442,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>125</v>
       </c>
@@ -2451,7 +2456,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>126</v>
       </c>
@@ -2465,7 +2470,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>128</v>
       </c>
@@ -2479,7 +2484,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>130</v>
       </c>
@@ -2493,7 +2498,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>133</v>
       </c>
@@ -2507,7 +2512,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>135</v>
       </c>
@@ -2521,7 +2526,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>137</v>
       </c>
@@ -2535,7 +2540,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>139</v>
       </c>
@@ -2549,7 +2554,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>140</v>
       </c>
@@ -2563,10 +2568,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>141</v>
       </c>
@@ -2574,7 +2579,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>142</v>
       </c>
@@ -2588,7 +2593,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>143</v>
       </c>
@@ -2602,7 +2607,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>144</v>
       </c>
@@ -2616,7 +2621,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>146</v>
       </c>
@@ -2630,7 +2635,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>150</v>
       </c>
@@ -2644,7 +2649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>151</v>
       </c>
@@ -2658,7 +2663,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>154</v>
       </c>
@@ -2672,7 +2677,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>156</v>
       </c>
@@ -2686,7 +2691,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>158</v>
       </c>
@@ -2700,7 +2705,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>159</v>
       </c>
@@ -2715,7 +2720,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>160</v>
       </c>
@@ -2729,7 +2734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>161</v>
       </c>
@@ -2743,7 +2748,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>162</v>
       </c>
@@ -2757,7 +2762,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>163</v>
       </c>
@@ -2771,7 +2776,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>165</v>
       </c>
@@ -2785,7 +2790,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>167</v>
       </c>
@@ -2799,7 +2804,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>169</v>
       </c>
@@ -2813,7 +2818,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="114" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>171</v>
       </c>
@@ -2827,7 +2832,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>173</v>
       </c>
@@ -2841,7 +2846,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>174</v>
       </c>
@@ -2849,7 +2854,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>175</v>
       </c>
@@ -2863,7 +2868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>176</v>
       </c>
@@ -2877,7 +2882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>177</v>
       </c>
@@ -2891,7 +2896,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>179</v>
       </c>
@@ -2905,7 +2910,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>180</v>
       </c>
@@ -2919,7 +2924,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>181</v>
       </c>
@@ -2933,7 +2938,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>184</v>
       </c>
@@ -2947,7 +2952,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>185</v>
       </c>
@@ -2961,7 +2966,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>186</v>
       </c>
@@ -2975,7 +2980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>187</v>
       </c>
@@ -2990,7 +2995,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>188</v>
       </c>
@@ -3004,7 +3009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>189</v>
       </c>
@@ -3018,7 +3023,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>190</v>
       </c>
@@ -3032,7 +3037,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>191</v>
       </c>
@@ -3046,7 +3051,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>193</v>
       </c>
@@ -3060,7 +3065,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>195</v>
       </c>
@@ -3074,7 +3079,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>196</v>
       </c>
@@ -3088,7 +3093,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="135" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>197</v>
       </c>
@@ -3102,7 +3107,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="136" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>198</v>
       </c>
@@ -3152,18 +3157,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C87CE17-644A-43D1-8CBB-47FA77E7CB0A}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="8" customWidth="1"/>
+    <col min="1" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3171,7 +3176,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3185,7 +3190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3199,7 +3204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3213,10 +3218,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3224,7 +3229,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3238,7 +3243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -3252,10 +3257,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3263,7 +3268,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -3277,7 +3282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -3291,7 +3296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -3305,10 +3310,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -3316,7 +3321,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -3330,7 +3335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -3344,7 +3349,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>222</v>
       </c>
@@ -3358,10 +3363,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -3369,7 +3374,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3383,7 +3388,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>37</v>
       </c>
@@ -3398,7 +3403,7 @@
       </c>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
@@ -3412,7 +3417,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -3420,7 +3425,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -3434,7 +3439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
@@ -3448,7 +3453,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>49</v>
       </c>
@@ -3462,7 +3467,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>52</v>
       </c>
@@ -3476,7 +3481,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
@@ -3490,7 +3495,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
@@ -3501,7 +3506,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>58</v>
       </c>
@@ -3516,7 +3521,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>60</v>
       </c>
@@ -3530,7 +3535,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
@@ -3544,7 +3549,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
@@ -3558,10 +3563,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,7 +3574,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>67</v>
       </c>
@@ -3583,7 +3588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>68</v>
       </c>
@@ -3597,7 +3602,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>69</v>
       </c>
@@ -3611,7 +3616,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>71</v>
       </c>
@@ -3625,7 +3630,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>73</v>
       </c>
@@ -3636,7 +3641,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>75</v>
       </c>
@@ -3650,7 +3655,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>78</v>
       </c>
@@ -3664,7 +3669,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
@@ -3678,7 +3683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>83</v>
       </c>
@@ -3692,7 +3697,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>84</v>
       </c>
@@ -3707,7 +3712,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>85</v>
       </c>
@@ -3721,7 +3726,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>86</v>
       </c>
@@ -3735,7 +3740,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>87</v>
       </c>
@@ -3749,7 +3754,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>89</v>
       </c>
@@ -3763,10 +3768,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
@@ -3774,7 +3779,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>92</v>
       </c>
@@ -3788,7 +3793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>93</v>
       </c>
@@ -3802,7 +3807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>94</v>
       </c>
@@ -3816,7 +3821,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>96</v>
       </c>
@@ -3830,7 +3835,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>97</v>
       </c>
@@ -3844,7 +3849,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>98</v>
       </c>
@@ -3859,7 +3864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>99</v>
       </c>
@@ -3873,7 +3878,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>100</v>
       </c>
@@ -3887,7 +3892,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>102</v>
       </c>
@@ -3901,7 +3906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>103</v>
       </c>
@@ -3915,13 +3920,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
     </row>
-    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>104</v>
       </c>
@@ -3929,7 +3934,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>105</v>
       </c>
@@ -3943,7 +3948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>106</v>
       </c>
@@ -3957,7 +3962,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>107</v>
       </c>
@@ -3971,7 +3976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>108</v>
       </c>
@@ -3985,7 +3990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>109</v>
       </c>
@@ -3999,7 +4004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>110</v>
       </c>
@@ -4013,7 +4018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>111</v>
       </c>
@@ -4027,7 +4032,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>112</v>
       </c>
@@ -4041,7 +4046,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>113</v>
       </c>
@@ -4055,7 +4060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>114</v>
       </c>
@@ -4069,7 +4074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>115</v>
       </c>
@@ -4077,7 +4082,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>116</v>
       </c>
@@ -4091,7 +4096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>117</v>
       </c>
@@ -4105,7 +4110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>118</v>
       </c>
@@ -4119,7 +4124,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>121</v>
       </c>
@@ -4133,7 +4138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>122</v>
       </c>
@@ -4147,7 +4152,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
         <v>229</v>
       </c>
@@ -4161,7 +4166,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>123</v>
       </c>
@@ -4176,7 +4181,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>124</v>
       </c>
@@ -4190,7 +4195,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>125</v>
       </c>
@@ -4204,7 +4209,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>126</v>
       </c>
@@ -4218,7 +4223,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>128</v>
       </c>
@@ -4232,7 +4237,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>130</v>
       </c>
@@ -4246,7 +4251,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>133</v>
       </c>
@@ -4260,7 +4265,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>135</v>
       </c>
@@ -4274,7 +4279,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>137</v>
       </c>
@@ -4288,7 +4293,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>139</v>
       </c>
@@ -4302,7 +4307,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>140</v>
       </c>
@@ -4316,10 +4321,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>141</v>
       </c>
@@ -4327,7 +4332,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>142</v>
       </c>
@@ -4341,7 +4346,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>143</v>
       </c>
@@ -4355,7 +4360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>144</v>
       </c>
@@ -4369,7 +4374,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>146</v>
       </c>
@@ -4383,7 +4388,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>150</v>
       </c>
@@ -4397,7 +4402,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>151</v>
       </c>
@@ -4411,7 +4416,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>154</v>
       </c>
@@ -4425,7 +4430,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>156</v>
       </c>
@@ -4439,7 +4444,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>158</v>
       </c>
@@ -4453,7 +4458,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>159</v>
       </c>
@@ -4468,7 +4473,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>160</v>
       </c>
@@ -4482,7 +4487,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>161</v>
       </c>
@@ -4496,7 +4501,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>162</v>
       </c>
@@ -4510,7 +4515,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>163</v>
       </c>
@@ -4524,7 +4529,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>165</v>
       </c>
@@ -4538,7 +4543,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>167</v>
       </c>
@@ -4552,7 +4557,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>169</v>
       </c>
@@ -4566,7 +4571,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="114" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>171</v>
       </c>
@@ -4580,7 +4585,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>173</v>
       </c>
@@ -4594,7 +4599,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>174</v>
       </c>
@@ -4602,7 +4607,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>175</v>
       </c>
@@ -4616,7 +4621,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>176</v>
       </c>
@@ -4630,7 +4635,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>177</v>
       </c>
@@ -4644,7 +4649,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>179</v>
       </c>
@@ -4658,7 +4663,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>180</v>
       </c>
@@ -4672,7 +4677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>181</v>
       </c>
@@ -4686,7 +4691,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>184</v>
       </c>
@@ -4700,7 +4705,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>185</v>
       </c>
@@ -4714,7 +4719,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>186</v>
       </c>
@@ -4728,7 +4733,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>187</v>
       </c>
@@ -4743,7 +4748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>188</v>
       </c>
@@ -4757,7 +4762,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>189</v>
       </c>
@@ -4771,7 +4776,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>190</v>
       </c>
@@ -4785,7 +4790,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>191</v>
       </c>
@@ -4799,7 +4804,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>193</v>
       </c>
@@ -4813,7 +4818,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>195</v>
       </c>
@@ -4827,7 +4832,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>196</v>
       </c>
@@ -4841,7 +4846,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="135" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>197</v>
       </c>
@@ -4855,7 +4860,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="136" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>198</v>
       </c>
@@ -4909,14 +4914,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="8" customWidth="1"/>
+    <col min="1" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4924,7 +4929,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4938,7 +4943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4952,7 +4957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -4966,10 +4971,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -4977,7 +4982,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -4991,7 +4996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -5005,10 +5010,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -5016,7 +5021,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -5030,7 +5035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -5044,7 +5049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -5058,10 +5063,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -5069,7 +5074,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -5083,7 +5088,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -5097,7 +5102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>222</v>
       </c>
@@ -5111,10 +5116,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -5122,7 +5127,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -5136,7 +5141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>37</v>
       </c>
@@ -5151,7 +5156,7 @@
       </c>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
@@ -5165,7 +5170,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -5173,7 +5178,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -5187,7 +5192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
@@ -5201,7 +5206,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>49</v>
       </c>
@@ -5215,7 +5220,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>52</v>
       </c>
@@ -5229,7 +5234,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
@@ -5243,7 +5248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
@@ -5254,7 +5259,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>58</v>
       </c>
@@ -5269,7 +5274,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>60</v>
       </c>
@@ -5283,7 +5288,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
@@ -5297,7 +5302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
@@ -5311,10 +5316,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -5322,7 +5327,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>67</v>
       </c>
@@ -5336,7 +5341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>68</v>
       </c>
@@ -5350,7 +5355,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>69</v>
       </c>
@@ -5364,7 +5369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>71</v>
       </c>
@@ -5378,7 +5383,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>73</v>
       </c>
@@ -5389,7 +5394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>75</v>
       </c>
@@ -5403,7 +5408,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>78</v>
       </c>
@@ -5417,7 +5422,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
@@ -5431,7 +5436,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>83</v>
       </c>
@@ -5445,7 +5450,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>84</v>
       </c>
@@ -5460,7 +5465,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>85</v>
       </c>
@@ -5474,7 +5479,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>86</v>
       </c>
@@ -5488,7 +5493,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>87</v>
       </c>
@@ -5502,7 +5507,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>89</v>
       </c>
@@ -5516,10 +5521,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
@@ -5527,7 +5532,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>92</v>
       </c>
@@ -5541,7 +5546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>93</v>
       </c>
@@ -5555,7 +5560,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>94</v>
       </c>
@@ -5569,7 +5574,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>96</v>
       </c>
@@ -5583,7 +5588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>97</v>
       </c>
@@ -5597,7 +5602,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>98</v>
       </c>
@@ -5612,7 +5617,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>99</v>
       </c>
@@ -5626,7 +5631,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>100</v>
       </c>
@@ -5640,7 +5645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>102</v>
       </c>
@@ -5654,7 +5659,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>103</v>
       </c>
@@ -5668,13 +5673,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
     </row>
-    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>104</v>
       </c>
@@ -5682,7 +5687,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>105</v>
       </c>
@@ -5696,7 +5701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>106</v>
       </c>
@@ -5710,7 +5715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>107</v>
       </c>
@@ -5724,7 +5729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>108</v>
       </c>
@@ -5738,7 +5743,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>109</v>
       </c>
@@ -5752,7 +5757,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>110</v>
       </c>
@@ -5766,7 +5771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>111</v>
       </c>
@@ -5780,7 +5785,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>112</v>
       </c>
@@ -5794,7 +5799,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>113</v>
       </c>
@@ -5808,7 +5813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>114</v>
       </c>
@@ -5822,7 +5827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>115</v>
       </c>
@@ -5830,7 +5835,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>116</v>
       </c>
@@ -5844,7 +5849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>117</v>
       </c>
@@ -5858,7 +5863,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>118</v>
       </c>
@@ -5872,7 +5877,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>121</v>
       </c>
@@ -5886,7 +5891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>122</v>
       </c>
@@ -5900,7 +5905,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
         <v>229</v>
       </c>
@@ -5914,7 +5919,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>123</v>
       </c>
@@ -5929,7 +5934,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>124</v>
       </c>
@@ -5943,7 +5948,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>125</v>
       </c>
@@ -5957,7 +5962,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>126</v>
       </c>
@@ -5971,7 +5976,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>128</v>
       </c>
@@ -5985,7 +5990,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>130</v>
       </c>
@@ -5999,7 +6004,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>133</v>
       </c>
@@ -6013,7 +6018,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>135</v>
       </c>
@@ -6027,7 +6032,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>137</v>
       </c>
@@ -6041,7 +6046,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>139</v>
       </c>
@@ -6055,7 +6060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>140</v>
       </c>
@@ -6069,10 +6074,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>141</v>
       </c>
@@ -6080,7 +6085,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>142</v>
       </c>
@@ -6094,7 +6099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>143</v>
       </c>
@@ -6108,7 +6113,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>144</v>
       </c>
@@ -6122,7 +6127,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>146</v>
       </c>
@@ -6136,7 +6141,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>150</v>
       </c>
@@ -6150,7 +6155,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>151</v>
       </c>
@@ -6164,7 +6169,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>154</v>
       </c>
@@ -6178,7 +6183,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>156</v>
       </c>
@@ -6192,7 +6197,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>158</v>
       </c>
@@ -6206,7 +6211,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>159</v>
       </c>
@@ -6221,7 +6226,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>160</v>
       </c>
@@ -6235,7 +6240,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>161</v>
       </c>
@@ -6249,7 +6254,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>162</v>
       </c>
@@ -6263,7 +6268,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>163</v>
       </c>
@@ -6277,7 +6282,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>165</v>
       </c>
@@ -6291,7 +6296,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>167</v>
       </c>
@@ -6305,7 +6310,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>169</v>
       </c>
@@ -6319,7 +6324,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="114" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>171</v>
       </c>
@@ -6333,7 +6338,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>173</v>
       </c>
@@ -6347,7 +6352,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>174</v>
       </c>
@@ -6355,7 +6360,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>175</v>
       </c>
@@ -6369,7 +6374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>176</v>
       </c>
@@ -6383,7 +6388,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>177</v>
       </c>
@@ -6397,7 +6402,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>179</v>
       </c>
@@ -6411,7 +6416,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>180</v>
       </c>
@@ -6425,7 +6430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>181</v>
       </c>
@@ -6439,7 +6444,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>184</v>
       </c>
@@ -6453,7 +6458,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>185</v>
       </c>
@@ -6467,7 +6472,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>186</v>
       </c>
@@ -6481,7 +6486,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>187</v>
       </c>
@@ -6496,7 +6501,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>188</v>
       </c>
@@ -6510,7 +6515,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>189</v>
       </c>
@@ -6524,7 +6529,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>190</v>
       </c>
@@ -6538,7 +6543,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>191</v>
       </c>
@@ -6552,7 +6557,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>193</v>
       </c>
@@ -6566,7 +6571,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>195</v>
       </c>
@@ -6580,7 +6585,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>196</v>
       </c>
@@ -6594,7 +6599,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="135" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>197</v>
       </c>
@@ -6608,7 +6613,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="136" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>198</v>
       </c>
@@ -6658,18 +6663,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A23578-0AE8-47E7-9F24-20E3F0FA7C34}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="8" customWidth="1"/>
+    <col min="1" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6677,7 +6682,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -6691,7 +6696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -6705,7 +6710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -6719,10 +6724,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -6730,7 +6735,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -6744,7 +6749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -6758,10 +6763,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -6769,7 +6774,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -6783,7 +6788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -6797,7 +6802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -6811,10 +6816,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -6822,7 +6827,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -6836,7 +6841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -6850,7 +6855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>222</v>
       </c>
@@ -6864,10 +6869,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -6875,7 +6880,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -6889,7 +6894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>37</v>
       </c>
@@ -6904,7 +6909,7 @@
       </c>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
@@ -6918,7 +6923,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -6926,7 +6931,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -6940,7 +6945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
@@ -6954,7 +6959,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>49</v>
       </c>
@@ -6968,7 +6973,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>52</v>
       </c>
@@ -6982,7 +6987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
@@ -6996,7 +7001,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
@@ -7007,7 +7012,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>58</v>
       </c>
@@ -7022,7 +7027,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>60</v>
       </c>
@@ -7036,7 +7041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
@@ -7050,7 +7055,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
@@ -7064,10 +7069,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -7075,7 +7080,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>67</v>
       </c>
@@ -7089,7 +7094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>68</v>
       </c>
@@ -7103,7 +7108,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>69</v>
       </c>
@@ -7117,7 +7122,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>71</v>
       </c>
@@ -7131,7 +7136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>73</v>
       </c>
@@ -7142,7 +7147,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>75</v>
       </c>
@@ -7156,7 +7161,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>78</v>
       </c>
@@ -7170,7 +7175,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
@@ -7184,7 +7189,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>83</v>
       </c>
@@ -7198,7 +7203,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>84</v>
       </c>
@@ -7213,7 +7218,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>85</v>
       </c>
@@ -7227,7 +7232,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>86</v>
       </c>
@@ -7241,7 +7246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>87</v>
       </c>
@@ -7255,7 +7260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>89</v>
       </c>
@@ -7269,10 +7274,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
@@ -7280,7 +7285,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>92</v>
       </c>
@@ -7294,7 +7299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>93</v>
       </c>
@@ -7308,7 +7313,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>94</v>
       </c>
@@ -7322,7 +7327,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>96</v>
       </c>
@@ -7336,7 +7341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>97</v>
       </c>
@@ -7350,7 +7355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>98</v>
       </c>
@@ -7365,7 +7370,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>99</v>
       </c>
@@ -7379,7 +7384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>100</v>
       </c>
@@ -7393,7 +7398,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>102</v>
       </c>
@@ -7407,7 +7412,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>103</v>
       </c>
@@ -7421,13 +7426,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
     </row>
-    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>104</v>
       </c>
@@ -7435,7 +7440,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>105</v>
       </c>
@@ -7449,7 +7454,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>106</v>
       </c>
@@ -7463,7 +7468,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>107</v>
       </c>
@@ -7477,7 +7482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>108</v>
       </c>
@@ -7491,7 +7496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>109</v>
       </c>
@@ -7505,7 +7510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>110</v>
       </c>
@@ -7519,7 +7524,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>111</v>
       </c>
@@ -7533,7 +7538,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>112</v>
       </c>
@@ -7547,7 +7552,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>113</v>
       </c>
@@ -7561,7 +7566,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>114</v>
       </c>
@@ -7575,7 +7580,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>115</v>
       </c>
@@ -7583,7 +7588,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>116</v>
       </c>
@@ -7597,7 +7602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>117</v>
       </c>
@@ -7611,7 +7616,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>118</v>
       </c>
@@ -7625,7 +7630,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>121</v>
       </c>
@@ -7639,7 +7644,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>122</v>
       </c>
@@ -7653,7 +7658,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
         <v>229</v>
       </c>
@@ -7667,7 +7672,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>123</v>
       </c>
@@ -7682,7 +7687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>124</v>
       </c>
@@ -7696,7 +7701,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>125</v>
       </c>
@@ -7710,7 +7715,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>126</v>
       </c>
@@ -7724,7 +7729,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>128</v>
       </c>
@@ -7738,7 +7743,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>130</v>
       </c>
@@ -7752,7 +7757,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>133</v>
       </c>
@@ -7766,7 +7771,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>135</v>
       </c>
@@ -7780,7 +7785,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>137</v>
       </c>
@@ -7794,7 +7799,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>139</v>
       </c>
@@ -7808,7 +7813,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>140</v>
       </c>
@@ -7822,10 +7827,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>141</v>
       </c>
@@ -7833,7 +7838,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>142</v>
       </c>
@@ -7847,7 +7852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>143</v>
       </c>
@@ -7861,7 +7866,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>144</v>
       </c>
@@ -7875,7 +7880,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>146</v>
       </c>
@@ -7889,7 +7894,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>150</v>
       </c>
@@ -7903,7 +7908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>151</v>
       </c>
@@ -7917,7 +7922,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>154</v>
       </c>
@@ -7931,7 +7936,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>156</v>
       </c>
@@ -7945,7 +7950,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>158</v>
       </c>
@@ -7959,7 +7964,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>159</v>
       </c>
@@ -7974,7 +7979,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>160</v>
       </c>
@@ -7988,7 +7993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>161</v>
       </c>
@@ -8002,7 +8007,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>162</v>
       </c>
@@ -8016,7 +8021,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>163</v>
       </c>
@@ -8030,7 +8035,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>165</v>
       </c>
@@ -8044,7 +8049,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>167</v>
       </c>
@@ -8058,7 +8063,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>169</v>
       </c>
@@ -8072,7 +8077,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="114" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>171</v>
       </c>
@@ -8086,7 +8091,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>173</v>
       </c>
@@ -8100,7 +8105,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>174</v>
       </c>
@@ -8108,7 +8113,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>175</v>
       </c>
@@ -8122,7 +8127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>176</v>
       </c>
@@ -8136,7 +8141,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>177</v>
       </c>
@@ -8150,7 +8155,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>179</v>
       </c>
@@ -8164,7 +8169,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>180</v>
       </c>
@@ -8178,7 +8183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>181</v>
       </c>
@@ -8192,7 +8197,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>184</v>
       </c>
@@ -8206,7 +8211,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>185</v>
       </c>
@@ -8220,7 +8225,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>186</v>
       </c>
@@ -8234,7 +8239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>187</v>
       </c>
@@ -8249,7 +8254,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>188</v>
       </c>
@@ -8263,7 +8268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>189</v>
       </c>
@@ -8277,7 +8282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>190</v>
       </c>
@@ -8291,7 +8296,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>191</v>
       </c>
@@ -8305,7 +8310,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>193</v>
       </c>
@@ -8319,7 +8324,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>195</v>
       </c>
@@ -8333,7 +8338,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>196</v>
       </c>
@@ -8347,7 +8352,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="135" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>197</v>
       </c>
@@ -8361,7 +8366,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="136" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>198</v>
       </c>

--- a/input/_excel/example.xlsx
+++ b/input/_excel/example.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="246">
   <si>
     <t xml:space="preserve">Global Simulation Options</t>
   </si>
@@ -628,6 +628,18 @@
     <t xml:space="preserve">bev_soe</t>
   </si>
   <si>
+    <t xml:space="preserve">bev_sys_chg_soe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of energy transferred between main buses and commodity bus (equals revenue through sale of energy to commodity operator -&gt; value has to be negative)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bev_sys_dis_soe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of energy transferred between commodity bus and system core (equals cost of buying energy back from commodity operator -&gt; value has to be positive)</t>
+  </si>
+  <si>
     <t xml:space="preserve">bev_ls</t>
   </si>
   <si>
@@ -710,6 +722,12 @@
   </si>
   <si>
     <t xml:space="preserve">brs_soe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brs_sys_chg_soe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brs_sys_dis_soe</t>
   </si>
   <si>
     <t xml:space="preserve">brs_ls</t>
@@ -1108,7 +1126,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -1289,10 +1307,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A139" activeCellId="0" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -2725,55 +2743,55 @@
         <v>200</v>
       </c>
       <c r="B115" s="11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B116" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B117" s="11" t="n">
-        <v>11000</v>
+        <v>10</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B118" s="11" t="n">
-        <v>11000</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>56</v>
+        <v>0.5</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -2781,10 +2799,10 @@
         <v>206</v>
       </c>
       <c r="B119" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>28</v>
+        <v>11000</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>207</v>
@@ -2795,10 +2813,10 @@
         <v>208</v>
       </c>
       <c r="B120" s="11" t="n">
-        <v>0.95</v>
+        <v>11000</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>209</v>
@@ -2809,9 +2827,9 @@
         <v>210</v>
       </c>
       <c r="B121" s="11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C121" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D121" s="12" t="s">
@@ -2823,232 +2841,232 @@
         <v>212</v>
       </c>
       <c r="B122" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A123" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B123" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A124" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B124" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D122" s="12" t="s">
+      <c r="C124" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="124" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A125" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A126" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>87</v>
-      </c>
+    <row r="126" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="3"/>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B127" s="8" t="n">
-        <v>30000</v>
+        <v>218</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>186</v>
+        <v>219</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A129" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>80</v>
+      <c r="A129" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" s="8" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A131" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B131" s="19" t="n">
-        <v>0</v>
+      <c r="B131" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A132" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B132" s="11" t="n">
-        <v>10</v>
+      <c r="B132" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A133" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B133" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>61</v>
+      <c r="A133" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B133" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A134" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B134" s="11" t="n">
-        <f aca="false">0.03*B133</f>
-        <v>0.015</v>
+        <v>10</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A135" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B135" s="11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>66</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A136" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B136" s="11" t="n">
-        <v>10</v>
+        <f aca="false">0.03*B135</f>
+        <v>0.015</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A137" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B137" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A138" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B138" s="11" t="n">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A139" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B139" s="11" t="n">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -3056,13 +3074,13 @@
         <v>234</v>
       </c>
       <c r="B140" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>207</v>
+        <v>69</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -3070,13 +3088,13 @@
         <v>235</v>
       </c>
       <c r="B141" s="11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C141" s="0" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -3084,26 +3102,82 @@
         <v>236</v>
       </c>
       <c r="B142" s="11" t="n">
-        <v>0.95</v>
+        <v>3600</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A143" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B143" s="11" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A144" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B144" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C143" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143" s="12" t="s">
+      <c r="C144" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A145" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B145" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A146" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B146" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A147" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B147" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3113,11 +3187,11 @@
       <formula1>"False,True"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B45:B46 B61:B62 B73:B74 B85:B86 B104:B105 B125:B126 B128" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B45:B46 B61:B62 B73:B74 B85:B86 B104:B105 B127:B128 B130" type="list">
       <formula1>"True,False,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B32 B110 B131" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B32 B110 B133" type="list">
       <formula1>"False,True,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3129,7 +3203,7 @@
       <formula1>"AC,DC"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B64 B76 B88 B108 B129" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B64 B76 B88 B108 B131" type="list">
       <formula1>"AC,DC,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3157,10 +3231,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A140" activeCellId="0" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -3211,7 +3285,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>35</v>
@@ -3364,7 +3438,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>10000000</v>
@@ -4607,55 +4681,55 @@
         <v>200</v>
       </c>
       <c r="B116" s="11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B117" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B118" s="11" t="n">
-        <v>11000</v>
+        <v>10</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A119" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B119" s="11" t="n">
-        <v>11000</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>56</v>
+        <v>0.5</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -4663,10 +4737,10 @@
         <v>206</v>
       </c>
       <c r="B120" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>28</v>
+        <v>11000</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>207</v>
@@ -4677,10 +4751,10 @@
         <v>208</v>
       </c>
       <c r="B121" s="11" t="n">
-        <v>0.95</v>
+        <v>11000</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>209</v>
@@ -4691,9 +4765,9 @@
         <v>210</v>
       </c>
       <c r="B122" s="11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C122" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D122" s="12" t="s">
@@ -4705,232 +4779,232 @@
         <v>212</v>
       </c>
       <c r="B123" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A124" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B124" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A125" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B125" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C123" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D123" s="12" t="s">
+      <c r="C125" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="125" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="3"/>
-    </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A126" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A127" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>87</v>
-      </c>
+    <row r="127" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="3"/>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B128" s="8" t="n">
-        <v>30000</v>
+        <v>218</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A129" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>186</v>
+        <v>219</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A130" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D130" s="21" t="s">
-        <v>80</v>
+      <c r="A130" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B130" s="8" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A131" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A132" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B132" s="19" t="n">
-        <v>0</v>
+      <c r="B132" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A133" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B133" s="11" t="n">
-        <v>10</v>
+      <c r="B133" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A134" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B134" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D134" s="12" t="s">
-        <v>61</v>
+      <c r="A134" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B134" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A135" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B135" s="11" t="n">
-        <f aca="false">0.03*B134</f>
-        <v>0.015</v>
+        <v>10</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A136" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B136" s="11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>66</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A137" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B137" s="11" t="n">
-        <v>10</v>
+        <f aca="false">0.03*B136</f>
+        <v>0.015</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A138" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B138" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A139" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B139" s="11" t="n">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A140" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B140" s="11" t="n">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -4938,13 +5012,13 @@
         <v>234</v>
       </c>
       <c r="B141" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>207</v>
+        <v>69</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -4952,13 +5026,13 @@
         <v>235</v>
       </c>
       <c r="B142" s="11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C142" s="0" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -4966,26 +5040,82 @@
         <v>236</v>
       </c>
       <c r="B143" s="11" t="n">
-        <v>0.95</v>
+        <v>3600</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A144" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B144" s="11" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A145" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B145" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C144" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D144" s="12" t="s">
+      <c r="C145" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A146" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B146" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A147" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B147" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A148" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B148" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5003,7 +5133,7 @@
       <formula1>"uc,tc,cc,v2v,v2g"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B65 B77 B89 B109 B130" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B65 B77 B89 B109 B132" type="list">
       <formula1>"AC,DC,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5011,11 +5141,11 @@
       <formula1>"AC,DC"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B33 B111 B132" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B33 B111 B134" type="list">
       <formula1>"False,True,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B46:B47 B62:B63 B74:B75 B86:B87 B105:B106 B126:B127 B129" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B46:B47 B62:B63 B74:B75 B86:B87 B105:B106 B128:B129 B131" type="list">
       <formula1>"True,False,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5039,10 +5169,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A139" activeCellId="0" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -6475,55 +6605,55 @@
         <v>200</v>
       </c>
       <c r="B115" s="11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B116" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B117" s="11" t="n">
-        <v>11000</v>
+        <v>10</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B118" s="11" t="n">
-        <v>11000</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>56</v>
+        <v>0.5</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -6531,10 +6661,10 @@
         <v>206</v>
       </c>
       <c r="B119" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>28</v>
+        <v>11000</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>207</v>
@@ -6545,10 +6675,10 @@
         <v>208</v>
       </c>
       <c r="B120" s="11" t="n">
-        <v>0.95</v>
+        <v>11000</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>209</v>
@@ -6559,9 +6689,9 @@
         <v>210</v>
       </c>
       <c r="B121" s="11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C121" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D121" s="12" t="s">
@@ -6573,232 +6703,232 @@
         <v>212</v>
       </c>
       <c r="B122" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A123" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B123" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A124" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B124" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D122" s="12" t="s">
+      <c r="C124" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="124" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A125" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A126" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>87</v>
-      </c>
+    <row r="126" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="3"/>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B127" s="8" t="n">
-        <v>30000</v>
+        <v>218</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>186</v>
+        <v>219</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A129" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>80</v>
+      <c r="A129" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" s="8" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A131" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B131" s="19" t="n">
-        <v>0</v>
+      <c r="B131" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A132" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B132" s="11" t="n">
-        <v>10</v>
+      <c r="B132" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A133" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B133" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>61</v>
+      <c r="A133" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B133" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A134" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B134" s="11" t="n">
-        <f aca="false">0.03*B133</f>
-        <v>0.015</v>
+        <v>10</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A135" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B135" s="11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>66</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A136" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B136" s="11" t="n">
-        <v>10</v>
+        <f aca="false">0.03*B135</f>
+        <v>0.015</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A137" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B137" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A138" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B138" s="11" t="n">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A139" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B139" s="11" t="n">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -6806,13 +6936,13 @@
         <v>234</v>
       </c>
       <c r="B140" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>207</v>
+        <v>69</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -6820,13 +6950,13 @@
         <v>235</v>
       </c>
       <c r="B141" s="11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C141" s="0" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -6834,26 +6964,82 @@
         <v>236</v>
       </c>
       <c r="B142" s="11" t="n">
-        <v>0.95</v>
+        <v>3600</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A143" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B143" s="11" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A144" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B144" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C143" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143" s="12" t="s">
+      <c r="C144" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A145" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B145" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A146" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B146" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A147" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B147" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6863,11 +7049,11 @@
       <formula1>"False,True"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B45:B46 B61:B62 B73:B74 B85:B86 B104:B105 B125:B126 B128" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B45:B46 B61:B62 B73:B74 B85:B86 B104:B105 B127:B128 B130" type="list">
       <formula1>"True,False,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B32 B110 B131" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B32 B110 B133" type="list">
       <formula1>"False,True,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6879,7 +7065,7 @@
       <formula1>"AC,DC"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B64 B76 B88 B108 B129" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B64 B76 B88 B108 B131" type="list">
       <formula1>"AC,DC,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6907,10 +7093,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A139" activeCellId="0" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -8323,7 +8509,7 @@
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A114" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B114" s="11" t="n">
         <v>0</v>
@@ -8332,63 +8518,63 @@
         <v>66</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>67</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A115" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B115" s="11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B116" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B117" s="11" t="n">
-        <v>11000</v>
+        <v>10</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B118" s="11" t="n">
-        <v>11000</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>56</v>
+        <v>0.5</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -8396,10 +8582,10 @@
         <v>206</v>
       </c>
       <c r="B119" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>28</v>
+        <v>11000</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>207</v>
@@ -8410,10 +8596,10 @@
         <v>208</v>
       </c>
       <c r="B120" s="11" t="n">
-        <v>0.95</v>
+        <v>11000</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>209</v>
@@ -8424,9 +8610,9 @@
         <v>210</v>
       </c>
       <c r="B121" s="11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C121" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D121" s="12" t="s">
@@ -8438,232 +8624,232 @@
         <v>212</v>
       </c>
       <c r="B122" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A123" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B123" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A124" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B124" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D122" s="12" t="s">
+      <c r="C124" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="124" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A125" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A126" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>87</v>
-      </c>
+    <row r="126" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="3"/>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B127" s="8" t="n">
-        <v>30000</v>
+        <v>218</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>186</v>
+        <v>219</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A129" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>80</v>
+      <c r="A129" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" s="8" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A131" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B131" s="19" t="n">
-        <v>0</v>
+      <c r="B131" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A132" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B132" s="11" t="n">
-        <v>10</v>
+      <c r="B132" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A133" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B133" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>61</v>
+      <c r="A133" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B133" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A134" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B134" s="11" t="n">
-        <f aca="false">0.03*B133</f>
-        <v>0.015</v>
+        <v>10</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A135" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B135" s="11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>66</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A136" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B136" s="11" t="n">
-        <v>10</v>
+        <f aca="false">0.03*B135</f>
+        <v>0.015</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A137" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B137" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A138" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B138" s="11" t="n">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A139" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B139" s="11" t="n">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -8671,13 +8857,13 @@
         <v>234</v>
       </c>
       <c r="B140" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>207</v>
+        <v>69</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -8685,13 +8871,13 @@
         <v>235</v>
       </c>
       <c r="B141" s="11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C141" s="0" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -8699,26 +8885,82 @@
         <v>236</v>
       </c>
       <c r="B142" s="11" t="n">
-        <v>0.95</v>
+        <v>3600</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A143" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B143" s="11" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A144" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B144" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C143" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143" s="12" t="s">
+      <c r="C144" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A145" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B145" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A146" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B146" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A147" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B147" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8728,11 +8970,11 @@
       <formula1>"False,True"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B45:B46 B61:B62 B73:B74 B85:B86 B104:B105 B125:B126 B128" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B45:B46 B61:B62 B73:B74 B85:B86 B104:B105 B127:B128 B130" type="list">
       <formula1>"True,False,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B32 B110 B131" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B32 B110 B133" type="list">
       <formula1>"False,True,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8744,7 +8986,7 @@
       <formula1>"AC,DC"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B64 B76 B88 B108 B129" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B64 B76 B88 B108 B131" type="list">
       <formula1>"AC,DC,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8772,10 +9014,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A139" activeCellId="0" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -8826,7 +9068,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>35</v>
@@ -10205,55 +10447,55 @@
         <v>200</v>
       </c>
       <c r="B115" s="11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B116" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B117" s="11" t="n">
-        <v>11000</v>
+        <v>10</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B118" s="11" t="n">
-        <v>11000</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>56</v>
+        <v>0.5</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -10261,10 +10503,10 @@
         <v>206</v>
       </c>
       <c r="B119" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>28</v>
+        <v>11000</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>207</v>
@@ -10275,10 +10517,10 @@
         <v>208</v>
       </c>
       <c r="B120" s="11" t="n">
-        <v>0.95</v>
+        <v>11000</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>209</v>
@@ -10289,9 +10531,9 @@
         <v>210</v>
       </c>
       <c r="B121" s="11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C121" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D121" s="12" t="s">
@@ -10303,232 +10545,232 @@
         <v>212</v>
       </c>
       <c r="B122" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A123" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B123" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A124" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B124" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D122" s="12" t="s">
+      <c r="C124" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="124" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A125" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A126" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>87</v>
-      </c>
+    <row r="126" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="3"/>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B127" s="8" t="n">
-        <v>30000</v>
+        <v>218</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>186</v>
+        <v>219</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A129" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>80</v>
+      <c r="A129" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" s="8" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A131" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B131" s="19" t="n">
-        <v>0</v>
+      <c r="B131" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A132" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B132" s="11" t="n">
-        <v>10</v>
+      <c r="B132" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A133" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B133" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>61</v>
+      <c r="A133" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B133" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A134" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B134" s="11" t="n">
-        <f aca="false">0.03*B133</f>
-        <v>0.015</v>
+        <v>10</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A135" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B135" s="11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>66</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A136" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B136" s="11" t="n">
-        <v>10</v>
+        <f aca="false">0.03*B135</f>
+        <v>0.015</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A137" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B137" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A138" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B138" s="11" t="n">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A139" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B139" s="11" t="n">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -10536,13 +10778,13 @@
         <v>234</v>
       </c>
       <c r="B140" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>207</v>
+        <v>69</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -10550,13 +10792,13 @@
         <v>235</v>
       </c>
       <c r="B141" s="11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C141" s="0" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -10564,26 +10806,82 @@
         <v>236</v>
       </c>
       <c r="B142" s="11" t="n">
-        <v>0.95</v>
+        <v>3600</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A143" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B143" s="11" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A144" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B144" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C143" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143" s="12" t="s">
+      <c r="C144" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A145" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B145" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A146" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B146" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A147" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B147" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -10593,11 +10891,11 @@
       <formula1>"False,True"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B45:B46 B61:B62 B73:B74 B85:B86 B104:B105 B125:B126 B128" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B45:B46 B61:B62 B73:B74 B85:B86 B104:B105 B127:B128 B130" type="list">
       <formula1>"True,False,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B32 B110 B131" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B32 B110 B133" type="list">
       <formula1>"False,True,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10609,7 +10907,7 @@
       <formula1>"AC,DC"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B64 B76 B88 B108 B129" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B64 B76 B88 B108 B131" type="list">
       <formula1>"AC,DC,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10637,10 +10935,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B151" activeCellId="0" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -12070,55 +12368,55 @@
         <v>200</v>
       </c>
       <c r="B115" s="11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B116" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A117" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B117" s="11" t="n">
-        <v>11000</v>
+        <v>10</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B118" s="11" t="n">
-        <v>11000</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>56</v>
+        <v>0.5</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -12126,10 +12424,10 @@
         <v>206</v>
       </c>
       <c r="B119" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>28</v>
+        <v>11000</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>207</v>
@@ -12140,10 +12438,10 @@
         <v>208</v>
       </c>
       <c r="B120" s="11" t="n">
-        <v>0.95</v>
+        <v>11000</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>209</v>
@@ -12154,9 +12452,9 @@
         <v>210</v>
       </c>
       <c r="B121" s="11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C121" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D121" s="12" t="s">
@@ -12168,232 +12466,232 @@
         <v>212</v>
       </c>
       <c r="B122" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A123" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B123" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A124" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B124" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C122" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D122" s="12" t="s">
+      <c r="C124" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="124" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A125" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A126" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>87</v>
-      </c>
+    <row r="126" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="3"/>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B127" s="8" t="n">
-        <v>30000</v>
+        <v>218</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>186</v>
+        <v>219</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A129" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>80</v>
+      <c r="A129" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" s="8" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A131" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B131" s="19" t="n">
-        <v>0</v>
+      <c r="B131" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A132" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B132" s="11" t="n">
-        <v>10</v>
+      <c r="B132" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A133" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B133" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>61</v>
+      <c r="A133" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B133" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A134" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B134" s="11" t="n">
-        <f aca="false">0.03*B133</f>
-        <v>0.015</v>
+        <v>10</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A135" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B135" s="11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>66</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A136" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B136" s="11" t="n">
-        <v>10</v>
+        <f aca="false">0.03*B135</f>
+        <v>0.015</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A137" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B137" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A138" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B138" s="11" t="n">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A139" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B139" s="11" t="n">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -12401,13 +12699,13 @@
         <v>234</v>
       </c>
       <c r="B140" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>207</v>
+        <v>69</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -12415,13 +12713,13 @@
         <v>235</v>
       </c>
       <c r="B141" s="11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C141" s="0" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -12429,26 +12727,82 @@
         <v>236</v>
       </c>
       <c r="B142" s="11" t="n">
-        <v>0.95</v>
+        <v>3600</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A143" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B143" s="11" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A144" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B144" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C143" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143" s="12" t="s">
+      <c r="C144" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A145" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B145" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A146" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B146" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A147" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B147" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -12458,11 +12812,11 @@
       <formula1>"False,True"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B45:B46 B61:B62 B73:B74 B85:B86 B104:B105 B125:B126 B128" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B45:B46 B61:B62 B73:B74 B85:B86 B104:B105 B127:B128 B130" type="list">
       <formula1>"True,False,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B32 B110 B131" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B32 B110 B133" type="list">
       <formula1>"False,True,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12474,7 +12828,7 @@
       <formula1>"AC,DC"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B64 B76 B88 B108 B129" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B64 B76 B88 B108 B131" type="list">
       <formula1>"AC,DC,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
